--- a/cars/data/car_listings_page1.xlsx
+++ b/cars/data/car_listings_page1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F253"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,29 +466,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022 Mitsubishi Outlander SE</t>
+          <t>2022 Kia Sorento SX Prestige</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$31,995</t>
+          <t>$46,625</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12,893 mi.</t>
+          <t>7,669 mi.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The Faricy Boys
+Rudolph Mazda
 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/1c719ab7-b56d-4a74-8c75-297631092945/</t>
+          <t>http://www.cars.com/vehicledetail/1944d595-5486-42c5-9211-1d287c2cfe91/</t>
         </is>
       </c>
     </row>
@@ -498,29 +498,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2018 Land Rover Range Rover Velar P250 S</t>
+          <t>2022 Audi SQ5 3.0T Premium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$42,998</t>
+          <t>$57,900</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46,099 mi.</t>
+          <t>8,012 mi.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CarMax Modesto - Now offering Curbside Pickup and Home Delivery
+Audi Modesto
 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/fd62e462-9be7-4494-a808-ea7545219b7a/</t>
+          <t>http://www.cars.com/vehicledetail/93e2f1ce-911d-4609-9a25-2db0fc63a38d/</t>
         </is>
       </c>
     </row>
@@ -530,29 +530,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2007 Toyota 4Runner Sport</t>
+          <t>2021 Volkswagen Arteon 2.0T SE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$13,995</t>
+          <t>$34,990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>121,520 mi.</t>
+          <t>3,815 mi.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Modesto Auto Exchange
+Central Valley Hyundai
 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/6c202b20-01b3-4949-b058-afb69d5c5aed/</t>
+          <t>http://www.cars.com/vehicledetail/f825a23e-b263-406c-ab8e-df6a188e7c51/</t>
         </is>
       </c>
     </row>
@@ -562,29 +562,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2010 MINI Cooper S S</t>
+          <t>2018 Lincoln MKZ Reserve I</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$8,999</t>
+          <t>$29,997</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>149,249 mi.</t>
+          <t>23,176 mi.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BabaCars
+Roberts Auto Sales
 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/883ac6f8-5ab1-4434-8a8a-16bdfddc0741/</t>
+          <t>http://www.cars.com/vehicledetail/7c170c11-304d-4405-bee3-b3230be7eda7/</t>
         </is>
       </c>
     </row>
@@ -594,29 +594,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020 Cadillac CT5 Sport RWD</t>
+          <t>2020 Lincoln Nautilus Reserve</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$44,939</t>
+          <t>$32,998</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9,848 mi.</t>
+          <t>55,770 mi.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mataga Buick GMC Cadillac
+Tracy Volkswagen
 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/4159431a-1051-4846-91d9-5c0db6794da3/</t>
+          <t>http://www.cars.com/vehicledetail/9a8d3468-5ca9-4b8d-8ad9-69e038113114/</t>
         </is>
       </c>
     </row>
@@ -626,29 +626,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2016 Ford Taurus SEL</t>
+          <t>2017 GMC Yukon XL Denali</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$18,991</t>
+          <t>$47,480</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>42,210 mi.</t>
+          <t>52,080 mi.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Livermore Ford Lincoln
+Mataga Buick GMC Cadillac
 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/e3f75d94-8afe-4065-adb1-0b3b6f1bad30/</t>
+          <t>http://www.cars.com/vehicledetail/9e57ec84-c3af-4723-a7fe-b3b7e8268196/</t>
         </is>
       </c>
     </row>
@@ -658,29 +658,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2019 BMW 440 Gran Coupe i</t>
+          <t>2015 Ford Fiesta SE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$35,800</t>
+          <t>$12,555</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45,041 mi.</t>
+          <t>30,314 mi.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Eastbay Motorcars
+Merced Auto World
 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0bdf3af2-7524-4d73-81e8-a1245b3efb0e/</t>
+          <t>http://www.cars.com/vehicledetail/3bcf1730-5dc1-4e68-ba6b-001219f424ed/</t>
         </is>
       </c>
     </row>
@@ -690,29 +690,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021 BMW Z4 sDrive30i</t>
+          <t>2019 Mercedes-Benz AMG G 63 Base</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$44,500</t>
+          <t>$165,999</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20,893 mi.</t>
+          <t>24,348 mi.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-INFINITI of San Jose
+Auto Resources
 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/94aeaf17-d87b-404b-91f0-d153e42eb7f4/</t>
+          <t>http://www.cars.com/vehicledetail/b6367971-6018-4849-950b-1829f1db8420/</t>
         </is>
       </c>
     </row>
@@ -722,29 +722,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022 BMW 840 i</t>
+          <t>2019 Volkswagen Golf 1.4T SE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$66,995</t>
+          <t>$19,999</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20,786 mi.</t>
+          <t>62,790 mi.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-INFINITI of San Jose
+Auto Resources
 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/b940a99b-3210-4b10-8fa4-47bfa0fa8a13/</t>
+          <t>http://www.cars.com/vehicledetail/8b394919-80c5-4d91-8a4e-43b508e7e1df/</t>
         </is>
       </c>
     </row>
@@ -754,29 +754,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2013 Nissan 370Z NISMO</t>
+          <t>2022 Volvo XC90 Recharge Plug-In Hybrid T8 Inscription 6 Passenger</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$30,609</t>
+          <t>$70,988</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48,000 mi.</t>
+          <t>12,256 mi.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-TRED Private Seller (San Jose)
+Audi Livermore
 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/e207af1c-1b7f-4573-a0c7-551410bd8c24/</t>
+          <t>http://www.cars.com/vehicledetail/bfb69285-2183-4d86-b4b6-c787ab82ce12/</t>
         </is>
       </c>
     </row>
@@ -786,29 +786,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2020 Honda Fit Sport</t>
+          <t>2020 Audi Q5 e 55 Premium</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$22,997</t>
+          <t>$43,000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24,923 mi.</t>
+          <t>27,835 mi.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Envision Honda of Milpitas
+Land Rover Livermore
 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/c6df3e8e-e65a-4522-b908-430e892fdc3f/</t>
+          <t>http://www.cars.com/vehicledetail/ccb50265-460f-4abf-b125-65da07728d0b/</t>
         </is>
       </c>
     </row>
@@ -818,29 +818,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023 Toyota 4Runner TRD Pro</t>
+          <t>2018 Land Rover Range Rover Evoque Landmark Edition</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$55,424</t>
+          <t>$31,000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0 mi.</t>
+          <t>24,950 mi.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Five Star Motors Inc.
+Land Rover Livermore
 </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8d426e36-0524-4bc4-96b7-2e772909e679/</t>
+          <t>http://www.cars.com/vehicledetail/526d109c-c9ae-4a06-b62f-f3ddf4699534/</t>
         </is>
       </c>
     </row>
@@ -850,29 +850,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023 Toyota 4Runner TRD Off Road Premium</t>
+          <t>2022 Kia Telluride S</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$47,998</t>
+          <t>$41,998</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0 mi.</t>
+          <t>134 mi.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Five Star Motors Inc.
+Arapahoe Kia
 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/5d1794b6-7610-4b8e-816f-6aeddfb8016f/</t>
+          <t>http://www.cars.com/vehicledetail/313acbdb-f57d-4b84-9b2c-d9bbf2414e1c/</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022 Acura RDX A-Spec</t>
+          <t>2023 Acura MDX Technology</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$46,405</t>
+          <t>$53,814</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2,063 mi.</t>
+          <t>6,628 mi.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/63943187-0b8d-4d40-a6c0-8c17573a9700/</t>
+          <t>http://www.cars.com/vehicledetail/1f6ca32f-29db-4a52-8675-3518fbf6759b/</t>
         </is>
       </c>
     </row>
@@ -914,29 +914,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022 Honda Ridgeline RTL-E</t>
+          <t>2022 Acura TLX A-Spec</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$45,760</t>
+          <t>$46,754</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5 mi.</t>
+          <t>457 mi.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Rapids Honda
+Vandergriff Acura
 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/3c57f6a6-f6ce-4795-ac94-281f5b700e0d/</t>
+          <t>http://www.cars.com/vehicledetail/53a4c384-763b-4d72-a9c9-4856ec6ce551/</t>
         </is>
       </c>
     </row>
@@ -946,25 +946,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022 Mercedes-Benz EQS 450+ Base</t>
+          <t>2022 Volkswagen Atlas 2.0T SE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$102,000</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>$38,370</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9,072 mi.</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Motor Werks - Barrington Auto Mall
+Don Thornton Volkswagen of Tulsa
 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/82603d0a-dcd8-4e15-a293-ab1e612d83b3/</t>
+          <t>http://www.cars.com/vehicledetail/c31ee430-b029-4c9a-91ab-d394836bff16/</t>
         </is>
       </c>
     </row>
@@ -974,29 +978,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022 Mercedes-Benz GLE 350 Base 4MATIC</t>
+          <t>2022 Ford Explorer Timberline</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$71,999</t>
+          <t>$48,000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18 mi.</t>
+          <t>4,535 mi.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mercedes Benz of Hoffman Estates
+Jimmy Michel Motors
 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/fb522a52-74a9-4180-acd8-17d6f474644e/</t>
+          <t>http://www.cars.com/vehicledetail/5e11ebd9-a20c-44e4-b463-3554ff8f0f22/</t>
         </is>
       </c>
     </row>
@@ -1006,29 +1010,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022 Porsche Cayenne EXECUTIVE DEMO- BALANCE OF WARRANTY PLUS CPO UNLIM</t>
+          <t>2022 BMW X7 M50i</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$84,886</t>
+          <t>$112,820</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6,465 mi.</t>
+          <t>3,884 mi.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Autohaus Lancaster, Inc.
+BMW MINI of Clear Lake
 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/70197bb5-5e26-4f6a-b220-12f9db3b864a/</t>
+          <t>http://www.cars.com/vehicledetail/f0cde3bb-2ac1-470a-9c9a-5c75fc9268d2/</t>
         </is>
       </c>
     </row>
@@ -1038,29 +1042,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2016 Chevrolet Colorado LT</t>
+          <t>2022 Mercedes-Benz GLB 250 Base 4MATIC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$25,478</t>
+          <t>$51,624</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89,545 mi.</t>
+          <t>2 mi.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-i.g. Burton Lewes AutoMall
+Mercedes-Benz of Marion
 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2385ddeb-b1a2-4fd0-94da-c9c948c879f3/</t>
+          <t>http://www.cars.com/vehicledetail/f38ae25b-d07d-4ff2-94c8-6c7a21b6fd6b/</t>
         </is>
       </c>
     </row>
@@ -1070,29 +1074,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022 Mazda CX-5 2.5 S Premium</t>
+          <t>2020 Land Rover Range Rover Evoque S</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$34,250</t>
+          <t>$38,494</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4,657 mi.</t>
+          <t>18,052 mi.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Patrick Mazda
+Land Rover Jaguar Main Line
 </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8bed4abb-3d7d-48d2-8128-342b5be46941/</t>
+          <t>http://www.cars.com/vehicledetail/d1a491f2-8e93-4365-a6b7-5de0c37efb49/</t>
         </is>
       </c>
     </row>
@@ -1102,29 +1106,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021 BMW 330 i xDrive</t>
+          <t>2022 Ford Mustang GT Premium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$40,949</t>
+          <t>$51,600</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23,575 mi.</t>
+          <t>10 mi.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Newport
+Greenwich Ford
 </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/3defed8e-c3d8-4128-99da-eaf729c56c8b/</t>
+          <t>http://www.cars.com/vehicledetail/e7cdeb1c-ebf6-4b92-907e-828fd4b9016e/</t>
         </is>
       </c>
     </row>
@@ -1134,29 +1138,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2018 BMW M550 i xDrive</t>
+          <t>2015 Toyota Highlander Limited Platinum</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$52,980</t>
+          <t>$36,998</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>34,609 mi.</t>
+          <t>20,555 mi.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Minnetonka
+CarMax Pleasanton - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2451cb61-c829-47de-a5e7-af91054e6073/</t>
+          <t>http://www.cars.com/vehicledetail/320d88cc-36d8-4dcf-ba4a-ded9b874d269/</t>
         </is>
       </c>
     </row>
@@ -1166,29 +1170,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2018 Volvo S90 T6 Inscription</t>
+          <t>2021 BMW X6 M Base</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$35,699</t>
+          <t>$107,998</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26,605 mi.</t>
+          <t>9,968 mi.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Niello BMW Elk Grove
+CarMax Pleasanton - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/eb018c63-ff35-48a2-8988-92fe160752a3/</t>
+          <t>http://www.cars.com/vehicledetail/8c02fbb1-ca1d-4bd8-be37-52023a7b6f81/</t>
         </is>
       </c>
     </row>
@@ -1198,29 +1202,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021 Buick Envision Essence</t>
+          <t>2009 Mercedes-Benz S-Class S 550 4MATIC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$38,900</t>
+          <t>$16,981</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13,385 mi.</t>
+          <t>84,760 mi.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Elk Grove Buick GMC
+Mercedes-Benz of San Jose
 </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2e386896-34de-4434-83ac-a97b20a3c45e/</t>
+          <t>http://www.cars.com/vehicledetail/6d4c0bd8-78e3-4f02-809c-fcd1974c9db9/</t>
         </is>
       </c>
     </row>
@@ -1230,29 +1234,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2019 Honda Ridgeline RTL-T</t>
+          <t>2014 Toyota Avalon XLE Touring</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$30,591</t>
+          <t>$23,590</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>58,139 mi.</t>
+          <t>28,280 mi.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Gilroy Chrysler Dodge Jeep Ram
+Carvana-Touchless Delivery To Your Home
 </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/ea77ad3b-e8a6-4965-8f27-fe813894469a/</t>
+          <t>http://www.cars.com/vehicledetail/dc7154d3-fe1d-446b-8799-5a7250ee12a0/</t>
         </is>
       </c>
     </row>
@@ -1262,29 +1266,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2017 Mercedes-Benz AMG GT AMG GT</t>
+          <t>2018 Land Rover Range Rover Evoque SE Premium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$89,000</t>
+          <t>$30,955</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>23,000 mi.</t>
+          <t>23,070 mi.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-TRED Private Seller (Sacramento)
+Mercedes-Benz of San Jose
 </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/76b65916-4640-462d-a800-b1d5a0009bbd/</t>
+          <t>http://www.cars.com/vehicledetail/4a636571-c292-4124-8eed-3d9818d01c30/</t>
         </is>
       </c>
     </row>
@@ -1294,29 +1298,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2020 Kia Cadenza Technology</t>
+          <t>2018 Lincoln Continental Reserve</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$40,156</t>
+          <t>$38,389</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20,675 mi.</t>
+          <t>30,740 mi.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Capitol Kia
+Mercedes-Benz of San Jose
 </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8382a389-8878-44ef-8fc3-35554a835eeb/</t>
+          <t>http://www.cars.com/vehicledetail/63b20710-4f13-4277-a4aa-2c5a00bb99b9/</t>
         </is>
       </c>
     </row>
@@ -1326,29 +1330,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021 Audi Q3 45 S line Premium</t>
+          <t>2012 INFINITI QX56 Base</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$38,994</t>
+          <t>$17,800</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16,777 mi.</t>
+          <t>125,567 mi.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Audi Fremont
+Eastbay Motorcars
 </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/1f419c0f-c67b-4c7d-a566-4fb38cf9c1ca/</t>
+          <t>http://www.cars.com/vehicledetail/1616dadf-ec37-4e8c-9cc7-3d75058d5c22/</t>
         </is>
       </c>
     </row>
@@ -1358,29 +1362,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2020 BMW M8 Competition</t>
+          <t>2013 Nissan 370Z NISMO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$99,965</t>
+          <t>$30,609</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>18,252 mi.</t>
+          <t>48,000 mi.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Fremont
+TRED Private Seller (San Jose)
 </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/209c05f9-94ba-479c-92e2-2a602bcc2ed1/</t>
+          <t>http://www.cars.com/vehicledetail/e207af1c-1b7f-4573-a0c7-551410bd8c24/</t>
         </is>
       </c>
     </row>
@@ -1390,29 +1394,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021 Cadillac XT6 Premium Luxury FWD</t>
+          <t>2012 Acura TSX Technology</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$41,989</t>
+          <t>$19,990</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>25,547 mi.</t>
+          <t>37,821 mi.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Capitol Buick GMC
+Carvana-Touchless Delivery To Your Home
 </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8cc4f00b-ac97-4c4d-b2ba-478425701882/</t>
+          <t>http://www.cars.com/vehicledetail/788080a2-f5a0-4b89-beea-d872cd1bc375/</t>
         </is>
       </c>
     </row>
@@ -1422,29 +1426,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2020 Nissan Maxima 3.5 SV</t>
+          <t>2017 FIAT 500X Pop</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$24,500</t>
+          <t>$19,590</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>60,927 mi.</t>
+          <t>31,486 mi.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Premier Nissan of San Jose
+Carvana-Touchless Delivery To Your Home
 </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/4df1ffe5-fa20-4132-8d50-e633c81c5bbf/</t>
+          <t>http://www.cars.com/vehicledetail/db66db67-4e69-4b54-b896-a75f06f7848e/</t>
         </is>
       </c>
     </row>
@@ -1454,29 +1458,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2018 Lexus LC 500 Base</t>
+          <t>2021 BMW X5 PHEV xDrive45e</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$86,988</t>
+          <t>$62,995</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8,400 mi.</t>
+          <t>28,555 mi.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lexus of Stevens Creek
+BMW of Fremont
 </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/07596990-e865-4545-9fd9-6f1c5f954723/</t>
+          <t>http://www.cars.com/vehicledetail/daf1a3a4-8e1c-41b1-b09e-e0f3446107bd/</t>
         </is>
       </c>
     </row>
@@ -1486,29 +1490,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2018 Hyundai Kona SEL</t>
+          <t>2020 BMW 740 i</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$19,795</t>
+          <t>$50,484</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>41,940 mi.</t>
+          <t>30,831 mi.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hertz Car Sales Hayward
+Fletcher Jones Motorcars of Fremont
 </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/7c866338-6caa-4e09-aa10-03ec96f0f669/</t>
+          <t>http://www.cars.com/vehicledetail/52b1d2dc-f5bc-4b3c-b76a-86b4f234a20a/</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1522,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021 Lincoln Aviator Black Label AWD</t>
+          <t>2020 Volvo V90 Cross Country T6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$66,495</t>
+          <t>$47,990</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>16,464 mi.</t>
+          <t>10,869 mi.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">
-MINI of Stevens Creek
+Capitol Chevrolet
 </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/31556dc6-ee02-4456-a158-b41a3536e056/</t>
+          <t>http://www.cars.com/vehicledetail/bfa46b81-9f5d-4bc8-86ac-00ba11ee6cc5/</t>
         </is>
       </c>
     </row>
@@ -1550,29 +1554,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2020 Hyundai IONIQ Hybrid Limited</t>
+          <t>2019 Lincoln MKC Select</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$27,999</t>
+          <t>$24,990</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>25,672 mi.</t>
+          <t>40,152 mi.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Stevens Creek BMW
+Capitol Buick GMC
 </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/a8721eef-f345-4a7e-a8f5-381114e233b1/</t>
+          <t>http://www.cars.com/vehicledetail/8ee8168c-e5e6-49dc-b3fa-04d54f2177c2/</t>
         </is>
       </c>
     </row>
@@ -1582,29 +1586,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2014 Audi A6 2.0T Premium Plus quattro</t>
+          <t>2022 Hyundai Elantra N Base</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$14,955</t>
+          <t>$37,900</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>101,543 mi.</t>
+          <t>2,938 mi.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-AutoNation Toyota Hayward
+Capitol Hyundai
 </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/5a463965-def6-44f2-9f65-7ffa4d64010f/</t>
+          <t>http://www.cars.com/vehicledetail/4492dbdc-f5e7-40ef-99cb-7279ebd75189/</t>
         </is>
       </c>
     </row>
@@ -1614,29 +1618,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2018 Mercedes-Benz GLS 450 Base 4MATIC</t>
+          <t>2017 Genesis G90 3.3T Premium</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$44,988</t>
+          <t>$34,900</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>37,089 mi.</t>
+          <t>33,982 mi.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Stevens Creek Nissan
+Capitol Hyundai
 </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/3f79f6f0-9fa1-4aa9-b2cd-cba27df15e0b/</t>
+          <t>http://www.cars.com/vehicledetail/e7d6ebed-c8da-4969-a330-375ab895ad68/</t>
         </is>
       </c>
     </row>
@@ -1646,29 +1650,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2017 BMW 430 i xDrive</t>
+          <t>2019 Ford Escape SE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$28,950</t>
+          <t>$22,998</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>38,638 mi.</t>
+          <t>29,600 mi.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shift Sacramento - Online
+CarMax Sacramento South - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/3dc56c22-8323-4eb7-92ab-81690500d341/</t>
+          <t>http://www.cars.com/vehicledetail/c7889634-a986-444b-894d-621ca819f85a/</t>
         </is>
       </c>
     </row>
@@ -1678,29 +1682,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2014 INFINITI Q50 Premium</t>
+          <t>2015 Land Rover Discovery Sport SE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$15,650</t>
+          <t>$22,998</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>112,020 mi.</t>
+          <t>64,891 mi.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shift Sacramento - Online
+CarMax Sacramento South - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/b70d0b7e-2edb-4b15-b5f5-1300049e3f03/</t>
+          <t>http://www.cars.com/vehicledetail/5af6e101-9d1c-4a41-8b2f-21df0c342292/</t>
         </is>
       </c>
     </row>
@@ -1710,29 +1714,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2013 Volkswagen CC 2.0T Lux</t>
+          <t>2017 RAM 1500 Tradesman/Express</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$13,550</t>
+          <t>$17,998</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>89,535 mi.</t>
+          <t>119,037 mi.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shift Sacramento - Online
+CarMax Sacramento South - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2d0692b6-a6ae-49fe-af59-34a130e71507/</t>
+          <t>http://www.cars.com/vehicledetail/c93e78c0-6f83-4f7d-a65d-ef0ef1e93930/</t>
         </is>
       </c>
     </row>
@@ -1742,29 +1746,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021 Lexus GX 460 Base</t>
+          <t>2018 Chrysler Pacifica Touring-L</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$52,850</t>
+          <t>$24,998</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>8,306 mi.</t>
+          <t>61,493 mi.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shift Sacramento - Online
+CarMax Sacramento South - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/7106f7cf-e19e-421b-a244-b9c5ad2a2d10/</t>
+          <t>http://www.cars.com/vehicledetail/ee030711-f3cf-4f30-8c52-31265ee7104d/</t>
         </is>
       </c>
     </row>
@@ -1774,29 +1778,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2017 Volkswagen Golf R 4-Door</t>
+          <t>2021 BMW Z4 sDrive30i</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$28,450</t>
+          <t>$43,995</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>53,581 mi.</t>
+          <t>20,893 mi.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shift Sacramento - Online
+INFINITI of San Jose
 </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/9fff27c1-32ec-452c-989b-47c9887031ea/</t>
+          <t>http://www.cars.com/vehicledetail/94aeaf17-d87b-404b-91f0-d153e42eb7f4/</t>
         </is>
       </c>
     </row>
@@ -1806,29 +1810,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2019 Volvo V90 T6 R-Design</t>
+          <t>2020 Toyota Tundra 1794</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$54,980</t>
+          <t>$61,998</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>24,869 mi.</t>
+          <t>2,383 mi.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Minnetonka
+CarMax Sacramento South - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/7b002065-1164-4040-b917-21ad50907510/</t>
+          <t>http://www.cars.com/vehicledetail/8bced9a6-73f4-4e04-8ef6-109c9a9385a9/</t>
         </is>
       </c>
     </row>
@@ -1838,29 +1842,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2020 Hyundai Sonata Hybrid Blue</t>
+          <t>2014 Audi S4 3.0T Prestige</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$27,350</t>
+          <t>$31,998</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>26,939 mi.</t>
+          <t>45,607 mi.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shift Sacramento - Online
+CarMax Sacramento South - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/6fab8205-ce32-4c6e-b9a3-262325d955aa/</t>
+          <t>http://www.cars.com/vehicledetail/044f48b2-00fe-4f71-889d-90cb2e7efb57/</t>
         </is>
       </c>
     </row>
@@ -1870,29 +1874,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021 Subaru Ascent Touring 7-Passenger</t>
+          <t>2017 Hyundai Accent SE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$40,995</t>
+          <t>$15,998</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17,467 mi.</t>
+          <t>45,327 mi.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sunnyvale Ford
+CarMax Sacramento South - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/40abe5af-7db1-4839-9d9c-10372927b239/</t>
+          <t>http://www.cars.com/vehicledetail/1000d9ba-40a9-480e-9c31-e1da03c930d7/</t>
         </is>
       </c>
     </row>
@@ -1902,29 +1906,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2019 Mazda Mazda6 Signature</t>
+          <t>2022 Polestar 2 Long Range Dual Motor</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$31,950</t>
+          <t>$49,000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12,709 mi.</t>
+          <t>26,700 mi.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lehmer's Concord Buick GMC
+TRED Private Seller (Sacramento)
 </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/1cc61fce-2c2e-4776-b335-8ced01880105/</t>
+          <t>http://www.cars.com/vehicledetail/6104f720-8ec8-42c2-87ad-c74e7dadf63b/</t>
         </is>
       </c>
     </row>
@@ -1934,29 +1938,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021 BMW 840 i xDrive</t>
+          <t>2018 BMW 330e iPerformance</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$72,614</t>
+          <t>$28,695</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3,094 mi.</t>
+          <t>23,676 mi.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Luxury Cars Los Gatos LLC
+United Imports
 </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/91fc0adc-2c92-4e60-a6d1-12d5bb83c532/</t>
+          <t>http://www.cars.com/vehicledetail/4998f661-147c-45a5-b045-3091643d1d99/</t>
         </is>
       </c>
     </row>
@@ -1966,29 +1970,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2012 Rolls-Royce Ghost Base</t>
+          <t>2021 BMW X4 xDrive30i</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$120,722</t>
+          <t>$39,995</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17,541 mi.</t>
+          <t>42,529 mi.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Luxury Cars Los Gatos LLC
+United Imports
 </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/06568336-0029-4ac8-bae6-b1ae0ec7c1fc/</t>
+          <t>http://www.cars.com/vehicledetail/806c017f-c8d0-463a-8cd6-9066c2ef7f59/</t>
         </is>
       </c>
     </row>
@@ -1998,29 +2002,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022 Honda CR-V Hybrid EX</t>
+          <t>2015 BMW 640 Gran Coupe i</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$35,999</t>
+          <t>$28,255</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7,827 mi.</t>
+          <t>69,940 mi.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Concord Honda
+MINI of Stevens Creek
 </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/240730d2-2b8f-4213-ace4-eac250cfa0ef/</t>
+          <t>http://www.cars.com/vehicledetail/b3300b32-ed7b-4196-9fdb-0d12a7d64aaa/</t>
         </is>
       </c>
     </row>
@@ -2030,29 +2034,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2015 Audi RS 7 4.0T Prestige</t>
+          <t>2018 Land Rover Range Rover Evoque SE Premium</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$59,990</t>
+          <t>$32,993</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>50,802 mi.</t>
+          <t>20,159 mi.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Elite Motor Cars
+MINI of Stevens Creek
 </t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/ea7f1f98-b8d8-457d-9c30-65f4409860c0/</t>
+          <t>http://www.cars.com/vehicledetail/f697a632-81bd-4f29-ac8c-131b3cc52fd7/</t>
         </is>
       </c>
     </row>
@@ -2062,29 +2066,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2016 Cadillac ATS-V Base</t>
+          <t>2022 BMW M3 Competition</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$44,990</t>
+          <t>$84,488</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>37,200 mi.</t>
+          <t>11,077 mi.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Elite Motor Cars
+Stevens Creek BMW
 </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/dcdb5674-a015-495c-ac6d-18bd0ccd34e1/</t>
+          <t>http://www.cars.com/vehicledetail/001e0de4-6185-47f2-be1e-4001c338cc74/</t>
         </is>
       </c>
     </row>
@@ -2094,29 +2098,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2020 Chevrolet Silverado 2500 High Country</t>
+          <t>2016 Cadillac CTS 3.6L Twin Turbo Vsport</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$76,995</t>
+          <t>$29,940</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>44,762 mi.</t>
+          <t>63,486 mi.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-916 Auto Mart
+Stevens Creek Mazda
 </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/3e7fe81d-d948-47f3-8127-0a7fc743a9be/</t>
+          <t>http://www.cars.com/vehicledetail/4b03def3-164f-4c10-91ac-d0d911bc90e6/</t>
         </is>
       </c>
     </row>
@@ -2126,29 +2130,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022 Acura RDX Technology Package</t>
+          <t>2013 Maserati GranTurismo Sport</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$45,999</t>
+          <t>$42,955</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>9,192 mi.</t>
+          <t>23,289 mi.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Acura of Concord
+Mercedes-Benz of Stevens Creek
 </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/234b7823-83da-4925-b55a-724706c3dabc/</t>
+          <t>http://www.cars.com/vehicledetail/97877b80-afda-4825-8eae-6cb74e008ad7/</t>
         </is>
       </c>
     </row>
@@ -2158,29 +2162,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2015 INFINITI QX60 Base</t>
+          <t>2022 Maserati Levante GT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$19,998</t>
+          <t>$71,455</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>115,423 mi.</t>
+          <t>2,620 mi.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-High Class Auto Sales
+Mercedes-Benz of Stevens Creek
 </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2fe6569c-9de4-4467-b9b3-d22ba34c3dc4/</t>
+          <t>http://www.cars.com/vehicledetail/8a7fdf83-0dd1-45fb-b5c7-c27cc1c8ea02/</t>
         </is>
       </c>
     </row>
@@ -2190,29 +2194,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022 Lamborghini Huracan EVO Coupe RWD</t>
+          <t>2020 Mercedes-Benz GLS 450 Base 4MATIC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$329,998</t>
+          <t>$63,955</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>112 mi.</t>
+          <t>32,613 mi.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-High Class Auto Sales
+Mercedes-Benz of Stevens Creek
 </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/34d876e5-2893-4749-b0e6-f7179bdfb21a/</t>
+          <t>http://www.cars.com/vehicledetail/60d04a86-ec10-445d-8542-64e59168224f/</t>
         </is>
       </c>
     </row>
@@ -2222,29 +2226,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2020 Cadillac CT5 Premium Luxury</t>
+          <t>2018 Toyota Prius Four</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$38,600</t>
+          <t>$24,950</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>31,852 mi.</t>
+          <t>62,526 mi.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Volvo Cars Palo Alto
+Shift Sacramento - Online
 </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/674d4887-53ce-4d66-a203-38339e54c1e5/</t>
+          <t>http://www.cars.com/vehicledetail/d296d945-cbd9-4fe6-a8c2-355e0a376356/</t>
         </is>
       </c>
     </row>
@@ -2254,29 +2258,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2015 BMW 428 i</t>
+          <t>2015 Nissan Altima 2.5 S</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$18,999</t>
+          <t>$14,950</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>96,000 mi.</t>
+          <t>54,619 mi.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Golden State Auto Inc.
+Shift Sacramento - Online
 </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/7cd2ea3d-d258-435c-bd87-0e65084c35e1/</t>
+          <t>http://www.cars.com/vehicledetail/ef72d58d-8f27-431b-bf8f-4b736c6b9499/</t>
         </is>
       </c>
     </row>
@@ -2286,29 +2290,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2017 Toyota Camry Hybrid SE</t>
+          <t>2006 Dodge Sprinter 2500</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$25,221</t>
+          <t>$29,998</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>50,833 mi.</t>
+          <t>105,205 mi.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Madera Toyota
+Calidad Motors, Inc
 </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/c55daeae-ab07-4b3d-859f-506237441272/</t>
+          <t>http://www.cars.com/vehicledetail/27fd3b6c-ca41-433b-863a-4b12701a7f8f/</t>
         </is>
       </c>
     </row>
@@ -2318,29 +2322,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2018 BMW M6 Base</t>
+          <t>2020 INFINITI Q60 3.0t LUXE</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$66,996</t>
+          <t>$36,888</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7,621 mi.</t>
+          <t>54,986 mi.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Niello BMW Mini
+Calidad Motors, Inc
 </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/130bb7b3-b760-4481-90f1-1aadef9c2ce0/</t>
+          <t>http://www.cars.com/vehicledetail/2d675ea0-2544-463b-b7ee-1231a82a099f/</t>
         </is>
       </c>
     </row>
@@ -2350,29 +2354,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2013 Chevrolet Tahoe LT</t>
+          <t>2014 Dodge Charger Police</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$17,495</t>
+          <t>$12,988</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>134,110 mi.</t>
+          <t>106,065 mi.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lending Group Auto
+Thrifty Car Sales
 </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8510daa4-b5a5-44ca-ba40-4b8788b4499e/</t>
+          <t>http://www.cars.com/vehicledetail/93cc4bed-d883-4934-bf09-a2a23f7bf1dc/</t>
         </is>
       </c>
     </row>
@@ -2382,29 +2386,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022 Chevrolet Blazer 2LT</t>
+          <t>2004 INFINITI G35 Base</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$36,988</t>
+          <t>$6,995</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>12,124 mi.</t>
+          <t>158,305 mi.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Chevrolet of Watsonville
+Urban Motors
 </t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0c8d0225-1001-457e-b1ea-a46472acc6a3/</t>
+          <t>http://www.cars.com/vehicledetail/c99c3c86-9752-49b3-9988-beaedeb11c43/</t>
         </is>
       </c>
     </row>
@@ -2414,29 +2418,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2018 Toyota Sequoia Limited</t>
+          <t>2011 Land Rover LR4 Base</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$37,999</t>
+          <t>$19,995</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>73,177 mi.</t>
+          <t>69,401 mi.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Watsonville Cadillac Buick GMC
+MAG Motor Company
 </t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/f3e5f30e-4afa-4cf9-b561-a9f40a3ba9d6/</t>
+          <t>http://www.cars.com/vehicledetail/d9bdc724-6ade-4b93-89bb-c62822e9d71a/</t>
         </is>
       </c>
     </row>
@@ -2446,29 +2450,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2004 Subaru Forester 2.5 X</t>
+          <t>2016 Lincoln MKX Reserve</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$6,769</t>
+          <t>$27,100</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>122,853 mi.</t>
+          <t>52,802 mi.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Car Expo Auto Center
+Ron Sayer's Chrysler Jeep Dodge RAM
 </t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/925ff511-2feb-44c2-a057-f599f112cc4d/</t>
+          <t>http://www.cars.com/vehicledetail/379982b3-fd0e-4900-93f6-b5c4f55797eb/</t>
         </is>
       </c>
     </row>
@@ -2478,29 +2482,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2020 Audi S7 2.9T Premium Plus</t>
+          <t>2020 Chrysler Pacifica Touring-L</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$73,900</t>
+          <t>$20,899</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>34,647 mi.</t>
+          <t>68,038 mi.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Toyota of Lincoln Park
+Mercedes-Benz of Walnut Creek
 </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/02e6b2cb-0f85-4142-906e-3edd3fdc9ac7/</t>
+          <t>http://www.cars.com/vehicledetail/3a6200bf-cfb8-4781-b050-f83f30a31ff6/</t>
         </is>
       </c>
     </row>
@@ -2510,29 +2514,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022 BMW X5 PHEV xDrive45e</t>
+          <t>2015 Porsche Panamera E-Hybrid S</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$68,771</t>
+          <t>$45,999</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>8,191 mi.</t>
+          <t>45,527 mi.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lexus of Sacramento
+Mercedes-Benz of Walnut Creek
 </t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/1fb4c112-2b88-4daf-882a-5691040354a6/</t>
+          <t>http://www.cars.com/vehicledetail/9dd0efa1-30b1-4c05-adf3-07b13282e8ef/</t>
         </is>
       </c>
     </row>
@@ -2542,29 +2546,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021 Lexus NX 300 F Sport</t>
+          <t>2016 Mercedes-Benz AMG GT AMG GT S</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$41,251</t>
+          <t>$84,950</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14,711 mi.</t>
+          <t>31,016 mi.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lexus of Sacramento
+The Luxury Collection Walnut Creek
 </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/7438ab14-8081-4fc5-bf60-2aecf922f987/</t>
+          <t>http://www.cars.com/vehicledetail/6cf4836f-4eb2-4492-b80d-05f0f93879f1/</t>
         </is>
       </c>
     </row>
@@ -2574,29 +2578,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021 Audi RS 7 4.0T quattro</t>
+          <t>2015 Mazda Mazda5 Sport</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$127,485</t>
+          <t>$18,590</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1,915 mi.</t>
+          <t>37,944 mi.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lexus of Sacramento
+Carvana-Touchless Delivery To Your Home
 </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/12220798-f580-423c-b6ec-9667f736c210/</t>
+          <t>http://www.cars.com/vehicledetail/fb73bf06-29ac-412a-865e-2e6f189e1a8e/</t>
         </is>
       </c>
     </row>
@@ -2606,29 +2610,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2014 Land Rover Range Rover 3.0L Supercharged HSE</t>
+          <t>2019 Audi RS 3 2.5T</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$33,000</t>
+          <t>$59,390</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>74,943 mi.</t>
+          <t>18,897 mi.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Madera Ford
+Elite Motor Cars
 </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/b4603b7d-0763-446e-95ea-f3e325c59793/</t>
+          <t>http://www.cars.com/vehicledetail/803407e3-eefa-451f-ae98-7e0cba29bf2b/</t>
         </is>
       </c>
     </row>
@@ -2638,29 +2642,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2015 Toyota Prius v Two</t>
+          <t>2016 Maserati GranTurismo Sport</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$14,988</t>
+          <t>$49,995</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>120,292 mi.</t>
+          <t>31,293 mi.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
           <t xml:space="preserve">
-M &amp; S Auto
+Pre Owned Only of San Jose
 </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/5fb0aa6b-3f9c-4ea1-b2d7-714ee007a14a/</t>
+          <t>http://www.cars.com/vehicledetail/dfd9989f-fe7d-41b4-a6c8-82a0663c9fd2/</t>
         </is>
       </c>
     </row>
@@ -2670,29 +2674,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2018 Audi A5 2.0T Premium Plus</t>
+          <t>2015 BMW 740 Li</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$35,625</t>
+          <t>$22,998</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>21,700 mi.</t>
+          <t>91,534 mi.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Maita Subaru
+High Class Auto Sales
 </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/ffa9e428-0987-4d65-8aad-ecfaaa5fa4f8/</t>
+          <t>http://www.cars.com/vehicledetail/d55ea867-8923-476a-b23c-4030095e96cc/</t>
         </is>
       </c>
     </row>
@@ -2702,29 +2706,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021 Chevrolet Tahoe Premier</t>
+          <t>2015 BMW X6 M AWD 4dr</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$65,995</t>
+          <t>$36,998</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>26,502 mi.</t>
+          <t>130,734 mi.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sacramento Chrysler Dodge Jeep Ram
+High Class Auto Sales
 </t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2be231cb-e481-436e-9a9f-78d689aefe0a/</t>
+          <t>http://www.cars.com/vehicledetail/dfb5e023-98ae-4f20-9d2d-dd6e523d3950/</t>
         </is>
       </c>
     </row>
@@ -2734,29 +2738,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021 Lincoln Navigator Reserve</t>
+          <t>2010 Audi Q7 3.6 Premium Plus</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$84,995</t>
+          <t>$12,999</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4,690 mi.</t>
+          <t>69,221 mi.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sacramento Chrysler Dodge Jeep Ram
+Autoamore
 </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/1fe74800-ba58-45c3-b74e-692b34c75be8/</t>
+          <t>http://www.cars.com/vehicledetail/c68424e9-1904-4e8f-bfc5-70b11e47291c/</t>
         </is>
       </c>
     </row>
@@ -2766,29 +2770,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022 Mazda MX-5 Miata Grand Touring</t>
+          <t>2022 Lexus IS 500 IS 500 F SPORT Performance Launch E</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$33,495</t>
+          <t>$75,900</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1,003 mi.</t>
+          <t>3,551 mi.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sacramento Chrysler Dodge Jeep Ram
+Volvo Cars Palo Alto
 </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0932ac07-3dc2-4cb8-b56f-c3040793b681/</t>
+          <t>http://www.cars.com/vehicledetail/363d0d91-a423-4fd0-b8e8-d601bb0ca923/</t>
         </is>
       </c>
     </row>
@@ -2798,29 +2802,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021 BMW M5 Base</t>
+          <t>2020 MINI Convertible Cooper S</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$96,995</t>
+          <t>$33,993</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>12,611 mi.</t>
+          <t>19,091 mi.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sacramento Chrysler Dodge Jeep Ram
+Niello BMW Mini
 </t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0390a7b9-c219-40e3-94c6-a1f2add54e0b/</t>
+          <t>http://www.cars.com/vehicledetail/d787e007-3dbc-48b4-877e-9bc61bf5d079/</t>
         </is>
       </c>
     </row>
@@ -2830,29 +2834,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021 Honda Accord LX 1.5T</t>
+          <t>2022 Mercedes-Benz EQS 580 Base 4MATIC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$27,400</t>
+          <t>$139,300</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>12,520 mi.</t>
+          <t>1,086 mi.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Capital City Honda
+Mercedes-Benz of Sacramento
 </t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/4adc2ccd-0fb9-4af7-a515-d8cb10dda4c5/</t>
+          <t>http://www.cars.com/vehicledetail/602d81f6-3d21-4eef-b71b-c78533a7eae6/</t>
         </is>
       </c>
     </row>
@@ -2862,29 +2866,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2020 Lincoln Aviator Reserve AWD</t>
+          <t>2020 Chevrolet Silverado 3500 WT</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$52,957</t>
+          <t>$51,798</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13,432 mi.</t>
+          <t>18,512 mi.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Capital City Honda
+Watsonville Chrysler Dodge Jeep Ram
 </t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/56b31aa5-0fef-4187-a2c2-5829462d781b/</t>
+          <t>http://www.cars.com/vehicledetail/1fed3a64-ad7a-4b3c-9bbc-3e6b9f5222e4/</t>
         </is>
       </c>
     </row>
@@ -2894,29 +2898,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2012 Cadillac CTS Performance</t>
+          <t>2022 Chevrolet Blazer 2LT</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$15,999</t>
+          <t>$35,988</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>86,000 mi.</t>
+          <t>12,124 mi.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Posh Motors
+Chevrolet of Watsonville
 </t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0ddaef87-ceda-4eac-bf6d-fe4b3e37d6b5/</t>
+          <t>http://www.cars.com/vehicledetail/0c8d0225-1001-457e-b1ea-a46472acc6a3/</t>
         </is>
       </c>
     </row>
@@ -2926,29 +2930,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2020 Lincoln Aviator Reserve RWD</t>
+          <t>2013 BMW 640 i</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$55,776</t>
+          <t>$21,700</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13,892 mi.</t>
+          <t>78,722 mi.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Future Ford of Sacramento
+Watsonville Cadillac Buick GMC
 </t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0f29a7a5-3371-42b9-b04d-2dd076fb8683/</t>
+          <t>http://www.cars.com/vehicledetail/ea736084-0a91-45ee-9e77-b5d46adf3281/</t>
         </is>
       </c>
     </row>
@@ -2958,29 +2962,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2020 Lincoln Aviator Reserve AWD</t>
+          <t>2015 BMW 228 i</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$60,925</t>
+          <t>$19,637</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>11,528 mi.</t>
+          <t>77,643 mi.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Future Ford of Sacramento
+Car Expo Auto Center
 </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/7aa39f75-f5d2-4963-b9bf-ebda49a99a84/</t>
+          <t>http://www.cars.com/vehicledetail/077d8781-c361-4597-a41e-70af8a5c7376/</t>
         </is>
       </c>
     </row>
@@ -2990,29 +2994,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2011 Ford F-350 Lariat Super Duty</t>
+          <t>2020 Mazda CX-3 Sport</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$39,825</t>
+          <t>$20,195</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>103,732 mi.</t>
+          <t>47,670 mi.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Future Ford of Sacramento
+Hertz Car Sales Sacramento
 </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8a42923e-4cab-42a0-9a43-3bbafee03701/</t>
+          <t>http://www.cars.com/vehicledetail/5dc4cc84-50dc-46e0-a7d4-11fed5b7ca16/</t>
         </is>
       </c>
     </row>
@@ -3022,29 +3026,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2006 Ford Mustang Premium</t>
+          <t>2018 Ford Expedition Max XLT</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$9,995</t>
+          <t>$29,998</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>120,136 mi.</t>
+          <t>106,000 mi.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Duncan Motors
+Choice Auto ' N ' Truck
 </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/3bea731d-b11b-4cfa-be24-c42d18db991f/</t>
+          <t>http://www.cars.com/vehicledetail/edba56f4-030e-4d83-8ad6-bfd233dda8da/</t>
         </is>
       </c>
     </row>
@@ -3054,29 +3058,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2019 Cadillac XT4 Premium Luxury</t>
+          <t>2016 Ford Transit Connect XLT</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$30,387</t>
+          <t>$24,998</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>35,179 mi.</t>
+          <t>66,000 mi.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Fairfield
+Choice Auto ' N ' Truck
 </t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/6c4c039f-00e1-420e-aa34-1ddbced551a9/</t>
+          <t>http://www.cars.com/vehicledetail/a0ebd32a-3022-42f4-934f-cc6747e68c81/</t>
         </is>
       </c>
     </row>
@@ -3086,29 +3090,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021 Ford Bronco Sport Base</t>
+          <t>2017 Honda Ridgeline RTL-T</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$30,211</t>
+          <t>$28,373</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>9,824 mi.</t>
+          <t>43,728 mi.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ocean Honda Santa Cruz
+Kareem Auto Sales
 </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/146188e8-963e-4cad-861e-178f1c63a66c/</t>
+          <t>http://www.cars.com/vehicledetail/f2dac68c-2e9b-434f-8f0a-7312e162836a/</t>
         </is>
       </c>
     </row>
@@ -3118,29 +3122,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2017 Kia Soul EV Base</t>
+          <t>2022 Audi Q7 45 Premium Plus</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$21,750</t>
+          <t>$56,804</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>10,610 mi.</t>
+          <t>4,010 mi.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Future Chrysler Dodge Jeep Ram of Fairfield
+Kelley Buick GMC of Bartow
 </t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/b90dfcee-377f-4ccd-8c7a-6a4ab38df175/</t>
+          <t>http://www.cars.com/vehicledetail/0edddddc-594b-4bee-a936-df9a2964d8b7/</t>
         </is>
       </c>
     </row>
@@ -3150,29 +3154,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022 Jeep Grand Cherokee Laredo</t>
+          <t>2012 Land Rover LR2 Base</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$43,995</t>
+          <t>$9,985</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3,713 mi.</t>
+          <t>107,989 mi.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The Faricy Boys
+Kareem Auto Sales
 </t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2148929e-0656-4ca9-8f4b-1174faeeed5e/</t>
+          <t>http://www.cars.com/vehicledetail/2807bb1b-ddbe-4754-b552-a46611c40e9f/</t>
         </is>
       </c>
     </row>
@@ -3182,29 +3186,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2020 Mercedes-Benz AMG GLC 43 Base 4MATIC</t>
+          <t>2017 Ford Focus RS Base</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$54,000</t>
+          <t>$31,875</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>14,756 mi.</t>
+          <t>75,750 mi.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sunwise Fairfield Preowned Superstore
+Kareem Auto Sales
 </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/64f91bc9-d466-4573-b600-91f6b6b259ae/</t>
+          <t>http://www.cars.com/vehicledetail/d66ec9e5-e0c8-4785-9f75-1281510e06e7/</t>
         </is>
       </c>
     </row>
@@ -3214,29 +3218,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2008 Nissan 350Z Grand Touring</t>
+          <t>2019 Kia Niro Plug-In Hybrid EX</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$15,295</t>
+          <t>$23,512</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>75,196 mi.</t>
+          <t>78,115 mi.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Armani Motors
+Folsom Lake Ford
 </t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/61446fa7-017d-4b48-ab09-558916d2fe44/</t>
+          <t>http://www.cars.com/vehicledetail/26d8f16b-72db-4c6f-825a-6449967aefa9/</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3250,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2015 Lexus CT 200h Base</t>
+          <t xml:space="preserve">2019 Tesla Model 3 </t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$18,997</t>
+          <t>$46,000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>119,358 mi.</t>
+          <t>19,120 mi.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Legacy Motors, Inc.
+Capitol Volkswagen - Delivery From San Jose, CA (for Sacramento)
 </t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/48e36b26-01df-47fb-84f3-b5fad73e4498/</t>
+          <t>http://www.cars.com/vehicledetail/402d1586-a9af-4664-8bf1-39c5f1431f8b/</t>
         </is>
       </c>
     </row>
@@ -3278,29 +3282,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021 Lincoln Navigator L Reserve</t>
+          <t>2011 Audi Q7 TDI Premium Plus</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$94,888</t>
+          <t>$19,590</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1,857 mi.</t>
+          <t>99,640 mi.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roseville Chevrolet
+Carvana-Touchless Delivery To Your Home
 </t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8ab32a66-af83-4446-a253-9d4e257d4892/</t>
+          <t>http://www.cars.com/vehicledetail/c2e47b31-bff6-4bcc-9b71-abb77495fcd9/</t>
         </is>
       </c>
     </row>
@@ -3310,29 +3314,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2018 Lexus GX 460 Base</t>
+          <t>2016 Lincoln Navigator Reserve</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$38,995</t>
+          <t>$33,990</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>67,171 mi.</t>
+          <t>69,523 mi.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lexus of Roseville
+Carvana-Touchless Delivery To Your Home
 </t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/dddf8ee1-8a9c-41fe-9004-4049cef4a719/</t>
+          <t>http://www.cars.com/vehicledetail/12adcbed-4ef8-4def-a316-1a2523c1f65d/</t>
         </is>
       </c>
     </row>
@@ -3342,29 +3346,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2016 BMW i8 Base</t>
+          <t>2014 Land Rover Range Rover 3.0L Supercharged HSE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$76,995</t>
+          <t>$33,000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>25,176 mi.</t>
+          <t>74,943 mi.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t xml:space="preserve">
-AutoNation Subaru Roseville
+Madera Ford
 </t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/4b00ffab-8be8-4591-9b45-c77b637e7c9b/</t>
+          <t>http://www.cars.com/vehicledetail/b4603b7d-0763-446e-95ea-f3e325c59793/</t>
         </is>
       </c>
     </row>
@@ -3374,29 +3378,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022 Genesis G70 3.3T</t>
+          <t>2005 Ford Mustang GT Deluxe</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$44,955</t>
+          <t>$11,400</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>8,457 mi.</t>
+          <t>71,945 mi.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
           <t xml:space="preserve">
-AutoNation Honda Roseville
+Madera Ford
 </t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/ed3e2f61-d29f-4208-b0aa-c08384c810cf/</t>
+          <t>http://www.cars.com/vehicledetail/a49260e0-8fb7-404d-b21d-36b875f03360/</t>
         </is>
       </c>
     </row>
@@ -3406,29 +3410,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022 Toyota Corolla Cross XLE</t>
+          <t>2021 Mazda CX-3 Sport</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$34,981</t>
+          <t>$23,972</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2,940 mi.</t>
+          <t>32,194 mi.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Roseville
+Maita Mazda
 </t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/34a7435d-2dbc-4db0-aa8f-be0045ac1a35/</t>
+          <t>http://www.cars.com/vehicledetail/113a2d9a-d81c-4b63-87b3-ab07e5a6e93c/</t>
         </is>
       </c>
     </row>
@@ -3438,29 +3442,29 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022 BMW i4 Gran Coupe M50</t>
+          <t>2018 Mercedes-Benz S-Class S 560</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Not Priced</t>
+          <t>$49,997</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2,937 mi.</t>
+          <t>77,927 mi.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Roseville
+Reliable Auto Source
 </t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/176042be-b532-42b4-977d-5257ba0bc508/</t>
+          <t>http://www.cars.com/vehicledetail/a15363f5-a99d-4b9b-83f4-485a3d1f613c/</t>
         </is>
       </c>
     </row>
@@ -3470,29 +3474,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2016 Land Rover LR4 Base</t>
+          <t>2021 Mercedes-Benz GLS 450 4MATIC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$32,984</t>
+          <t>$64,995</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>69,100 mi.</t>
+          <t>42,233 mi.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Salinas Honda
+Sacramento Chrysler Dodge Jeep Ram
 </t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0bde02a5-e3f9-4a5b-bbd4-a613b1c8c277/</t>
+          <t>http://www.cars.com/vehicledetail/9bffa3da-39cf-4314-a30b-17eb10e6f1df/</t>
         </is>
       </c>
     </row>
@@ -3502,29 +3506,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021 Toyota Corolla SE</t>
+          <t>2019 Porsche Cayenne E-Hybrid Base</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$26,999</t>
+          <t>$70,995</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>33,912 mi.</t>
+          <t>28,641 mi.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hanlees Hilltop Hyundai
+Sacramento Chrysler Dodge Jeep Ram
 </t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/b1a98131-f5d3-4751-b31c-f30931a24fec/</t>
+          <t>http://www.cars.com/vehicledetail/ba078fba-d406-4173-8352-4ec29b732801/</t>
         </is>
       </c>
     </row>
@@ -3534,29 +3538,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2017 Porsche Panamera 4</t>
+          <t>2005 Chevrolet Corvette Base</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$69,995</t>
+          <t>$26,999</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>47,951 mi.</t>
+          <t>65,000 mi.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Porsche Rocklin
+Posh Motors
 </t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/10a96295-3684-4818-9ac7-8c21c8de19a7/</t>
+          <t>http://www.cars.com/vehicledetail/f46b1e62-df8c-4b97-827c-329eead0c7d7/</t>
         </is>
       </c>
     </row>
@@ -3566,29 +3570,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2020 Porsche 718 Spyder Base</t>
+          <t>2021 Mercedes-Benz AMG GLA 35 Base</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$132,899</t>
+          <t>$47,999</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>4,183 mi.</t>
+          <t>2,452 mi.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Porsche Rocklin
+Autobahn Motors
 </t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0b67b205-f8e3-4e63-910c-02f4cfee42b2/</t>
+          <t>http://www.cars.com/vehicledetail/b26c520b-2030-4bd7-bb08-f7bbbebc07e4/</t>
         </is>
       </c>
     </row>
@@ -3598,29 +3602,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2003 Mercedes-Benz SL-Class SL55 AMG</t>
+          <t>2021 BMW 330e 330e</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$25,250</t>
+          <t>$42,987</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>50,350 mi.</t>
+          <t>9,793 mi.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The Auto Paddock
+BMW of Fairfield
 </t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/51574fc2-dfbc-4532-90cd-86e218083e23/</t>
+          <t>http://www.cars.com/vehicledetail/baa43cbf-88fe-4720-83c6-0a097bf917c4/</t>
         </is>
       </c>
     </row>
@@ -3630,29 +3634,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2014 Audi SQ5 3.0T Premium Plus</t>
+          <t>2022 Jeep Grand Cherokee L Limited</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$21,950</t>
+          <t>$46,487</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>75,612 mi.</t>
+          <t>4,619 mi.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shift Bay Area
+BMW of Fairfield
 </t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/6cda5a4c-994a-42a2-8e40-898ca6b5c83e/</t>
+          <t>http://www.cars.com/vehicledetail/35a4ea54-0cad-481a-8b43-e79a05f0dfed/</t>
         </is>
       </c>
     </row>
@@ -3662,29 +3666,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2010 Toyota Highlander SE</t>
+          <t>2021 Dodge Charger R/T</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$13,700</t>
+          <t>$38,950</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>130,711 mi.</t>
+          <t>11,468 mi.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shift Bay Area
+Future Chrysler Dodge Jeep Ram of Fairfield
 </t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/36163fd9-53bf-40f2-bf94-b4df8557fdb0/</t>
+          <t>http://www.cars.com/vehicledetail/265bf83c-3287-4914-8f5e-df6f9b541418/</t>
         </is>
       </c>
     </row>
@@ -3694,29 +3698,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2013 Volvo C70 T5 Premier Plus</t>
+          <t>2019 Genesis G70 2.0T Advanced</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$20,950</t>
+          <t>$35,950</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>47,532 mi.</t>
+          <t>1,808 mi.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shift Bay Area
+Future Chrysler Dodge Jeep Ram of Fairfield
 </t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0cd3abf3-0d1f-462f-a85c-566f40b9f802/</t>
+          <t>http://www.cars.com/vehicledetail/21e40559-b474-4df6-a93e-9a3e48ad9831/</t>
         </is>
       </c>
     </row>
@@ -3726,29 +3730,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2019 Mazda CX-5 Grand Touring</t>
+          <t>2019 Mazda CX-9 Grand Touring</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$26,998</t>
+          <t>$31,000</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>23,723 mi.</t>
+          <t>20,354 mi.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CarMax Serramonte - Now offering Curbside Pickup and Home Delivery
+Sunwise Fairfield Preowned Superstore
 </t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/de3e6157-eec4-4222-9960-2f9a4663fe8a/</t>
+          <t>http://www.cars.com/vehicledetail/6bf9c50d-b975-4741-86d2-f6b078c26d36/</t>
         </is>
       </c>
     </row>
@@ -3758,29 +3762,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2013 MINI Convertible Cooper S</t>
+          <t>2019 BMW M4 Base</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$23,998</t>
+          <t>$65,000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>17,953 mi.</t>
+          <t>12,767 mi.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CarMax Serramonte - Now offering Curbside Pickup and Home Delivery
+Sunwise Fairfield Preowned Superstore
 </t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/9248569e-49dd-4937-9a66-130fbde6cce5/</t>
+          <t>http://www.cars.com/vehicledetail/e0d35399-f186-4998-b41f-45d1d213d7e1/</t>
         </is>
       </c>
     </row>
@@ -3790,29 +3794,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2017 Audi A3 2.0T Premium Plus</t>
+          <t>2021 GMC Yukon Denali</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$23,999</t>
+          <t>$72,590</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>46,017 mi.</t>
+          <t>19,221 mi.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Honda of Serramonte
+BMW of Idaho Falls
 </t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/76cc981b-242b-4f2d-8d40-467dbdf59fad/</t>
+          <t>http://www.cars.com/vehicledetail/ca1dfd61-a0ec-4505-8de5-a0b8c0067fcd/</t>
         </is>
       </c>
     </row>
@@ -3822,29 +3826,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2022 Cadillac Escalade ESV Luxury</t>
+          <t>2022 Ford Bronco Raptor</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$89,995</t>
+          <t>$115,000</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>20,906 mi.</t>
+          <t>729 mi.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The Faricy Boys
+North Bay Ford
 </t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/07cdcf6d-fcf0-49d1-84ca-eecbdf2c1716/</t>
+          <t>http://www.cars.com/vehicledetail/2451d5cf-e141-4e0f-99b3-9f87662131c5/</t>
         </is>
       </c>
     </row>
@@ -3854,29 +3858,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2013 Audi S4 3.0T Prestige</t>
+          <t xml:space="preserve">2008 Hummer H3 </t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$19,688</t>
+          <t>$10,988</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>79,375 mi.</t>
+          <t>156,149 mi.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fresno Acura
+Roseville Automaxx
 </t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/1b6be08b-483b-45dc-89e7-678758ff3616/</t>
+          <t>http://www.cars.com/vehicledetail/757191a2-774f-4607-86bf-4ed507858390/</t>
         </is>
       </c>
     </row>
@@ -3886,29 +3890,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2020 Mercedes-Benz Maybach S 650 Base</t>
+          <t>2009 Honda Pilot Touring</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$199,980</t>
+          <t>$9,795</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3,357 mi.</t>
+          <t>161,215 mi.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Audi Fresno
+Armani Motors
 </t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/487ba09a-f437-469a-9710-9f2fd2a74306/</t>
+          <t>http://www.cars.com/vehicledetail/8d314cd9-3229-4ae9-9e94-aa08cbded193/</t>
         </is>
       </c>
     </row>
@@ -3918,29 +3922,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2022 Audi e-tron GT Premium Plus</t>
+          <t>2014 Maserati Quattroporte GTS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$101,660</t>
+          <t>$29,495</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3,057 mi.</t>
+          <t>55,559 mi.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Audi Fresno
+Armani Motors
 </t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/6258772b-93e6-4e3c-81b8-408a4129b85d/</t>
+          <t>http://www.cars.com/vehicledetail/fc4ab5da-05bc-40ab-b015-2812381bb850/</t>
         </is>
       </c>
     </row>
@@ -3950,29 +3954,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2017 INFINITI Q70L 3.7</t>
+          <t>2022 INFINITI Q50 RED SPORT 400</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$30,777</t>
+          <t>$54,500</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>29,610 mi.</t>
+          <t>9,520 mi.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mercedes-Benz of Fresno
+INFINITI ROSEVILLE
 </t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/efab7d2c-a7a1-43a2-83f8-25b7709b84b2/</t>
+          <t>http://www.cars.com/vehicledetail/3050f153-1bb0-4266-82ed-69b2e3ede4e3/</t>
         </is>
       </c>
     </row>
@@ -3982,29 +3986,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2015 Mazda MX-5 Miata Grand Touring</t>
+          <t>2022 BMW 540 i xDrive</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$22,998</t>
+          <t>$60,488</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>32,552 mi.</t>
+          <t>2,764 mi.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CarMax Fresno - Now offering Curbside Pickup and Home Delivery
+AutoNation Chrysler Dodge Jeep Ram Roseville
 </t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/026d3e67-e3c7-438d-95bb-69b9fa38486a/</t>
+          <t>http://www.cars.com/vehicledetail/30154038-b3c9-49a5-acf8-a46a06d3e7e1/</t>
         </is>
       </c>
     </row>
@@ -4014,29 +4018,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021 Lexus LX 570 Three-Row</t>
+          <t>2022 Jeep Grand Cherokee L Laredo</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$93,600</t>
+          <t>$48,955</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>10,137 mi.</t>
+          <t>7,174 mi.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fresno Lexus
+AutoNation Chrysler Dodge Jeep Ram Roseville
 </t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/390f6674-98b8-4f97-80ef-239dc8b62608/</t>
+          <t>http://www.cars.com/vehicledetail/05d9c386-01c0-4e8b-ab44-4a04cee1e96f/</t>
         </is>
       </c>
     </row>
@@ -4046,29 +4050,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2019 Lexus RX 450h F Sport</t>
+          <t>2019 BMW M850 i xDrive</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$51,900</t>
+          <t>$72,988</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>14,150 mi.</t>
+          <t>13,885 mi.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fresno Lexus
+BMW of Roseville
 </t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/386c917d-6688-44f5-9eb0-f8fabc6f70ad/</t>
+          <t>http://www.cars.com/vehicledetail/62a596f5-fbe1-4d35-a2b4-42edb7ab8cb4/</t>
         </is>
       </c>
     </row>
@@ -4078,29 +4082,29 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2022 Lexus IS 350 F Sport</t>
+          <t>2019 Mercedes-Benz AMG GLC 43 4MATIC Coupe</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$51,400</t>
+          <t>$56,418</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>5,539 mi.</t>
+          <t>11,035 mi.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fresno Lexus
+BMW of Roseville
 </t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/cef5df5c-90b5-46e3-8675-af77b5db2936/</t>
+          <t>http://www.cars.com/vehicledetail/6183e329-807f-49b4-9908-3895f31ad753/</t>
         </is>
       </c>
     </row>
@@ -4110,29 +4114,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2022 BMW X7 xDrive40i</t>
+          <t>2017 MINI Countryman Cooper ALL4</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$78,995</t>
+          <t>$30,999</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>8,250 mi.</t>
+          <t>32,741 mi.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fresno Chrysler Dodge Jeep RAM
+Roseville Toyota
 </t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/4bcfdc00-7dfa-45bb-b04c-84c2d088bd57/</t>
+          <t>http://www.cars.com/vehicledetail/039bf83e-531e-40eb-8e6a-05a19a5e6ee3/</t>
         </is>
       </c>
     </row>
@@ -4142,29 +4146,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2019 Cadillac ATS 2.0L Turbo Luxury</t>
+          <t>2021 GMC Acadia SLE</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$33,898</t>
+          <t>$34,998</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>29,653 mi.</t>
+          <t>25,103 mi.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Blackstone Chevrolet
+CarMax Sacramento/Roseville - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/c4657477-5d6e-41c2-87bb-3b67e02f4eda/</t>
+          <t>http://www.cars.com/vehicledetail/7dc2b790-a7e4-4e6c-940b-a23eed04bb53/</t>
         </is>
       </c>
     </row>
@@ -4174,29 +4178,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2022 Porsche Macan Base</t>
+          <t>2018 Land Rover Range Rover Velar P250 S</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$58,651</t>
+          <t>$36,995</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>13,361 mi.</t>
+          <t>40,748 mi.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Blackstone Chevrolet
+Putnam Volvo Cars Mazda Subaru Dodge Jeep Chrysler RAM Nissan
 </t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/91026a08-9822-446d-aba4-ab2633b824ea/</t>
+          <t>http://www.cars.com/vehicledetail/5948a772-337d-44e9-a252-dd9935d6dcbe/</t>
         </is>
       </c>
     </row>
@@ -4206,29 +4210,29 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2016 BMW X4 xDrive28i</t>
+          <t>2018 Dodge Charger SRT Hellcat</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>$27,295</t>
+          <t>$66,998</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>68,682 mi.</t>
+          <t>7,326 mi.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fresno Mitsubishi
+YC Auto Group Richmond
 </t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/628ab00a-525c-4192-81be-dc281d3c7719/</t>
+          <t>http://www.cars.com/vehicledetail/251c218c-5deb-45a6-b772-790d16a5d154/</t>
         </is>
       </c>
     </row>
@@ -4238,29 +4242,29 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2019 Mercedes-Benz CLA 250 Base</t>
+          <t>2012 Mazda Mazda5 Grand Touring</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>$28,895</t>
+          <t>$11,995</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>39,737 mi.</t>
+          <t>139,066 mi.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lithia Hyundai of Fresno
+Hayes Auto Sales
 </t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/a28fbe6a-f22a-43c8-96c5-bc0b33635bfd/</t>
+          <t>http://www.cars.com/vehicledetail/6d108aeb-f768-4002-8cc3-dd1480b9cb73/</t>
         </is>
       </c>
     </row>
@@ -4270,29 +4274,29 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2015 Subaru WRX STI Launch Edition</t>
+          <t xml:space="preserve">2007 Hummer H3 </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>$26,995</t>
+          <t>$10,995</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>97,385 mi.</t>
+          <t>143,313 mi.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lithia Hyundai of Fresno
+Hayes Auto Sales
 </t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/f9d34324-f9eb-479b-9a0e-916727b29a66/</t>
+          <t>http://www.cars.com/vehicledetail/510708dc-c7bb-41b1-8a91-0a9f831074a2/</t>
         </is>
       </c>
     </row>
@@ -4302,29 +4306,29 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2015 Lexus CT 200h Base</t>
+          <t>2013 BMW X3 xDrive28i</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>$24,995</t>
+          <t>$12,300</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>60,737 mi.</t>
+          <t>87,828 mi.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lithia Hyundai of Fresno
+Shift Bay Area
 </t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2d6e765b-5afa-403d-8f2d-3a28a497ed94/</t>
+          <t>http://www.cars.com/vehicledetail/29e0a174-adf9-4c16-bc37-89bddd4140c0/</t>
         </is>
       </c>
     </row>
@@ -4334,29 +4338,29 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021 Volkswagen Atlas 3.6 V6 SE w/ Technology</t>
+          <t>2015 Maserati GranTurismo Base</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>$30,895</t>
+          <t>$55,500</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>47,049 mi.</t>
+          <t>23,500 mi.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lithia Hyundai of Fresno
+Inflowtech Motors
 </t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/c594d1ba-2fbc-4393-bc1d-d724a222784f/</t>
+          <t>http://www.cars.com/vehicledetail/8a462b52-507a-48c5-8d55-9e5fb826a2b5/</t>
         </is>
       </c>
     </row>
@@ -4366,29 +4370,29 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2002 Toyota MR2 Spyder</t>
+          <t>2016 Lincoln Navigator L Select</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>$11,881</t>
+          <t>$28,999</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>92,012 mi.</t>
+          <t>65,095 mi.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Executive Auto Center
+Lexus of Serramonte
 </t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/6e0909b7-20d4-4d13-b056-6efbc1af0165/</t>
+          <t>http://www.cars.com/vehicledetail/4bdf27c8-09cb-46bd-9693-c0a2b761b4a1/</t>
         </is>
       </c>
     </row>
@@ -4398,29 +4402,29 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2014 Hyundai Sonata Hybrid Limited</t>
+          <t>2016 Chevrolet Volt Premier</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>$17,832</t>
+          <t>$22,500</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>46,679 mi.</t>
+          <t>60,430 mi.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Executive Auto Center
+Green Light Auto Wholesale
 </t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/9cf805b3-107c-4f37-a446-18333ca13722/</t>
+          <t>http://www.cars.com/vehicledetail/698e89e0-a492-4a0a-89c1-f522f74ae037/</t>
         </is>
       </c>
     </row>
@@ -4430,29 +4434,29 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2018 Mercedes-Benz GLS 450 Base 4MATIC</t>
+          <t>2021 Porsche Macan GTS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>$46,994</t>
+          <t>$77,889</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>28,589 mi.</t>
+          <t>21,618 mi.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Marin Luxury Cars - Jaguar Land Rover
+Audi Fresno
 </t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/6419410b-bc53-4157-9a6b-eacc0e3e1022/</t>
+          <t>http://www.cars.com/vehicledetail/81643a17-8caa-44c7-beee-35b63be5657e/</t>
         </is>
       </c>
     </row>
@@ -4462,29 +4466,29 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2019 Audi A7 3.0T Premium Plus</t>
+          <t>2020 BMW 530 i xDrive</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>$49,990</t>
+          <t>$31,400</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>34,942 mi.</t>
+          <t>61,734 mi.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Volkswagen Marin
+INFINITI of San Jose
 </t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/53af663e-dcfe-4cc3-8a16-9cf185d70623/</t>
+          <t>http://www.cars.com/vehicledetail/3a800a7a-ef89-40df-aa7b-b64d6ad176d4/</t>
         </is>
       </c>
     </row>
@@ -4494,29 +4498,29 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2018 Mercedes-Benz GLC 300 Base 4MATIC</t>
+          <t>2013 Volvo XC60 T6 R-Design Platinum</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>$31,990</t>
+          <t>$16,477</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>48,958 mi.</t>
+          <t>72,716 mi.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Porsche St. Paul
+Mercedes-Benz of Fresno
 </t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/064c540f-f383-4fc8-ab28-fbdbdd0ac15d/</t>
+          <t>http://www.cars.com/vehicledetail/9beb4361-bb49-4450-9eb9-02cff5b61335/</t>
         </is>
       </c>
     </row>
@@ -4526,29 +4530,29 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2010 Toyota Matrix S</t>
+          <t>2016 Subaru Impreza 2.0i Premium</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>$12,000</t>
+          <t>$19,900</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>79,522 mi.</t>
+          <t>27,104 mi.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Toyota Marin
+Fresno Lexus
 </t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8fbe3eaa-ae49-4006-b7b2-c54f1f9b47ca/</t>
+          <t>http://www.cars.com/vehicledetail/2141061a-4611-4bdc-b7e5-ea4bfb1e6bcb/</t>
         </is>
       </c>
     </row>
@@ -4558,29 +4562,29 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2007 BMW 335 i</t>
+          <t>2022 BMW M3 Competition xDrive</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>$16,500</t>
+          <t>$99,991</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>35,703 mi.</t>
+          <t>2,248 mi.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Toyota Marin
+Porsche Marin
 </t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2e1d401d-5557-4849-8668-c57c30d315fd/</t>
+          <t>http://www.cars.com/vehicledetail/e3bf8bd6-565c-4fa7-af5d-99e271b2d16a/</t>
         </is>
       </c>
     </row>
@@ -4590,29 +4594,29 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2019 Volvo XC90 T6 Inscription</t>
+          <t>2021 Lexus IS 350 F Sport</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>$48,598</t>
+          <t>$46,063</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>52,496 mi.</t>
+          <t>12,959 mi.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cypress Coast Ford
+Lithia Subaru of Fresno
 </t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/31665e92-a89d-43ac-a075-4bd68b329f78/</t>
+          <t>http://www.cars.com/vehicledetail/1d81c4c7-86c5-4e79-8374-31c8e3153f10/</t>
         </is>
       </c>
     </row>
@@ -4622,29 +4626,29 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2019 BMW X3 xDrive30i</t>
+          <t>2018 Jaguar E-PACE R-Dynamic S</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>$32,990</t>
+          <t>$29,994</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>15,601 mi.</t>
+          <t>39,412 mi.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Monterey
+Marin Luxury Cars - Jaguar Land Rover
 </t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/f72d1608-3e9c-4e93-8572-c3ae4f823d9f/</t>
+          <t>http://www.cars.com/vehicledetail/8b58db37-c080-4795-bcc8-c8c8518b90e4/</t>
         </is>
       </c>
     </row>
@@ -4654,29 +4658,29 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2018 GMC Acadia SLT-1</t>
+          <t>2021 Audi RS Q8 4.0T quattro</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>$29,990</t>
+          <t>$124,988</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>8,973 mi.</t>
+          <t>5,746 mi.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Monterey
+Marin Mazda
 </t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/b3281f27-bc46-485b-946e-06a51bc333fd/</t>
+          <t>http://www.cars.com/vehicledetail/a1803d04-dc6c-4a51-b146-1ced416dcf67/</t>
         </is>
       </c>
     </row>
@@ -4686,29 +4690,29 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2020 BMW X7 M50i</t>
+          <t>2019 Jaguar I-PACE First Edition</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>$81,993</t>
+          <t>$50,995</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>19,791 mi.</t>
+          <t>32,896 mi.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Monterey
+Volkswagen Marin
 </t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/86e4ecd1-ab36-4c50-95f9-e487dbfd78a6/</t>
+          <t>http://www.cars.com/vehicledetail/f69992bc-e272-4669-8d20-83cd7308fd81/</t>
         </is>
       </c>
     </row>
@@ -4718,29 +4722,29 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2022 Volkswagen Atlas Cross Sport 3.6L V6 SEL Premium R-Line</t>
+          <t>2015 Audi SQ5 3.0T Premium Plus</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>$44,700</t>
+          <t>$26,976</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>15,411 mi.</t>
+          <t>68,786 mi.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Seaside Chrysler Dodge Jeep Ram
+Volkswagen Marin
 </t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/272c5757-5950-4ecd-87a5-33316d8af5f2/</t>
+          <t>http://www.cars.com/vehicledetail/1f70e2da-0147-47ec-9d75-968d7633bab6/</t>
         </is>
       </c>
     </row>
@@ -4750,29 +4754,29 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2015 INFINITI Q70 3.7</t>
+          <t>2015 Hyundai Genesis 3.8</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>$17,000</t>
+          <t>$23,697</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>116,235 mi.</t>
+          <t>48,091 mi.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jaguar Land Rover Volvo of Monterey
+DriveTime of Fresno
 </t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/4c28274d-62e5-4275-b647-f70df91a6b8d/</t>
+          <t>http://www.cars.com/vehicledetail/c93a8a77-8006-4dfa-a7d6-51156564d603/</t>
         </is>
       </c>
     </row>
@@ -4782,29 +4786,29 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2020 Land Rover Discovery HSE LUXURY</t>
+          <t>2018 Lexus ES 350 Base</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>$57,800</t>
+          <t>$27,490</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>33,504 mi.</t>
+          <t>46,149 mi.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jaguar Land Rover Volvo of Monterey
+INFINITI of Marin
 </t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/54318b57-b144-4601-a755-9f1ec1b61d30/</t>
+          <t>http://www.cars.com/vehicledetail/f4da07a4-20c5-4cac-944a-ff8fccaaf1e7/</t>
         </is>
       </c>
     </row>
@@ -4814,29 +4818,29 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2019 Volvo XC90 T6 Inscription</t>
+          <t xml:space="preserve">2017 Lamborghini Huracan </t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>$47,000</t>
+          <t>$259,991</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>28,518 mi.</t>
+          <t>21,023 mi.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jaguar Land Rover Volvo of Monterey
+San Francisco Exotic Cars
 </t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0aa2ccbc-397b-4d02-834c-1fc71cfd3a79/</t>
+          <t>http://www.cars.com/vehicledetail/087906e5-b795-4cb3-9b6b-d16e9fc03ecc/</t>
         </is>
       </c>
     </row>
@@ -4846,29 +4850,29 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2016 Chevrolet Silverado 2500 LT</t>
+          <t>2020 BMW 430 i</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>$39,905</t>
+          <t>$35,993</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>87,944 mi.</t>
+          <t>12,109 mi.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fresno/Clovis Autoplex
+BMW of Monterey
 </t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/e0d8b71c-ad17-4bda-b551-09cefdce7236/</t>
+          <t>http://www.cars.com/vehicledetail/ec1834e3-b4b3-49b2-ba91-e4ac3a336464/</t>
         </is>
       </c>
     </row>
@@ -4878,29 +4882,29 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2017 Nissan Maxima 3.5 S</t>
+          <t>2019 Audi Q8 3.0T Premium Plus</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>$24,638</t>
+          <t>$49,798</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>37,703 mi.</t>
+          <t>60,837 mi.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fresno/Clovis Autoplex
+Audi of Monterey Peninsula
 </t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/e389cf1d-f321-4cbe-b6d7-5eebf7a36793/</t>
+          <t>http://www.cars.com/vehicledetail/fa6fe89b-053f-49e7-9fa6-b5bbd7e30de9/</t>
         </is>
       </c>
     </row>
@@ -4910,29 +4914,29 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2022 Jeep Grand Wagoneer Series III</t>
+          <t>2021 Ford Shelby GT500 Base</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>$97,880</t>
+          <t>$109,999</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>3,398 mi.</t>
+          <t>2,505 mi.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Haron Jaguar Land Rover
+Future Ford of Clovis
 </t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/f7ebd9cb-b3fb-41c6-a382-46f43244e405/</t>
+          <t>http://www.cars.com/vehicledetail/aae977bc-1281-466e-b26e-f818e85d9024/</t>
         </is>
       </c>
     </row>
@@ -4942,29 +4946,29 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2020 Mazda Mazda3 FWD w/Select Package</t>
+          <t>2022 Kia Seltos EX</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>$25,300</t>
+          <t>$32,750</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>18,174 mi.</t>
+          <t>7,168 mi.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selma Chrysler Dodge Jeep Ram
+Future Kia of Clovis
 </t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/717502dc-5cc1-422b-991f-c3db4220b1e6/</t>
+          <t>http://www.cars.com/vehicledetail/d65aba33-1cdf-487e-8b01-254e2f4651ce/</t>
         </is>
       </c>
     </row>
@@ -4974,29 +4978,29 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2014 MINI Paceman Cooper</t>
+          <t>2021 Nissan Murano S</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>$17,500</t>
+          <t>$26,490</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>69,184 mi.</t>
+          <t>12,999 mi.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-John L Sullivan Dodge Chrysler Jeep RAM
+Nissan of Yuba City
 </t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2eb615a3-01cf-44f0-ac44-aeabc65c06c4/</t>
+          <t>http://www.cars.com/vehicledetail/d9b382d7-44c7-48bb-b51d-6b6a1608815c/</t>
         </is>
       </c>
     </row>
@@ -5006,17 +5010,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2020 Volvo V60 Cross Country T5</t>
+          <t>2022 Mercedes-Benz GLE 450 AWD 4MATIC</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>$41,701</t>
+          <t>$69,900</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>14,969 mi.</t>
+          <t>9,603 mi.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5028,7 +5032,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/90a3fe49-fc00-4104-9ddc-9fab2b1f13a3/</t>
+          <t>http://www.cars.com/vehicledetail/9a5e4bc7-83e8-43b7-b102-15013a349ea4/</t>
         </is>
       </c>
     </row>
@@ -5038,29 +5042,29 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021 Mercedes-Benz GLE 450 GLE 450</t>
+          <t>2020 Ford Expedition Max Limited</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>$67,643</t>
+          <t>$46,000</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>20,275 mi.</t>
+          <t>68,255 mi.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Freeman Lexus
+Hoblit Motors Ford
 </t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/168cddca-50d6-4a2c-8cf7-7d858cd37b2e/</t>
+          <t>http://www.cars.com/vehicledetail/acae79db-6899-4e94-bf7f-0c084451c123/</t>
         </is>
       </c>
     </row>
@@ -5070,29 +5074,29 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021 Lexus NX 300 Base</t>
+          <t>2017 Toyota Highlander Hybrid Limited</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>$41,448</t>
+          <t>$33,989</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>13,796 mi.</t>
+          <t>52,009 mi.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Freeman Lexus
+Bill Pearce BMW
 </t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/f04b3f68-cfe6-4c16-be58-fbc08b20486a/</t>
+          <t>http://www.cars.com/vehicledetail/df01ca65-10d5-4ddf-b7a9-56a08d95210d/</t>
         </is>
       </c>
     </row>
@@ -5102,29 +5106,29 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021 Mercedes-Benz E-Class E 350</t>
+          <t>2018 Audi A6 2.0T Premium quattro</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>$56,998</t>
+          <t>$29,952</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1,559 mi.</t>
+          <t>37,813 mi.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CarMax Santa Rosa - Now offering Curbside Pickup and Home Delivery
+Mercedes-Benz of Reno
 </t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/5262e6d5-09a6-4c1d-8d21-d6fe15ace1c3/</t>
+          <t>http://www.cars.com/vehicledetail/79cdd37d-c6fc-4092-a648-bb8939ebb373/</t>
         </is>
       </c>
     </row>
@@ -5134,29 +5138,29 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2019 Ford Ranger XLT</t>
+          <t>2020 RAM 1500 Laramie</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>$31,900</t>
+          <t>$51,295</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>29,938 mi.</t>
+          <t>16,711 mi.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hoblit Motors Ford
+Ron Sayer's Chrysler Jeep Dodge RAM
 </t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/cf8c1a74-3fdc-41ac-a3db-b9c2e7dac728/</t>
+          <t>http://www.cars.com/vehicledetail/061e07e3-9119-428e-8fc2-18e69f418593/</t>
         </is>
       </c>
     </row>
@@ -5166,29 +5170,29 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2015 Lexus GX 460 Base</t>
+          <t>2019 BMW M240 i xDrive</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>$31,974</t>
+          <t>$44,591</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>68,450 mi.</t>
+          <t>16,719 mi.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
           <t xml:space="preserve">
-McGrath Lexus Chicago
+Mercedes-Benz of Reno
 </t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2e6c926a-6798-4595-b78e-3bd565c36be2/</t>
+          <t>http://www.cars.com/vehicledetail/98dfcc5a-51c9-479a-bedb-b917a6c09524/</t>
         </is>
       </c>
     </row>
@@ -5198,29 +5202,29 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2019 Jaguar F-PACE S</t>
+          <t>2015 Mercedes-Benz C-Class C 300</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>$44,999</t>
+          <t>$23,998</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>60,216 mi.</t>
+          <t>52,643 mi.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Visalia
+CarMax Reno - Now offering Curbside Pickup
 </t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/d76b731d-ff42-4564-b0d7-b8c7694a3c99/</t>
+          <t>http://www.cars.com/vehicledetail/48042e9d-3a3f-4559-ace7-9a37dc34fc88/</t>
         </is>
       </c>
     </row>
@@ -5230,29 +5234,29 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2019 MINI Clubman Cooper</t>
+          <t>2018 Nissan Maxima 3.5 SV</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>$26,988</t>
+          <t>$24,998</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>22,895 mi.</t>
+          <t>45,591 mi.</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bill Pearce BMW
+CarMax Reno - Now offering Curbside Pickup
 </t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/1f294a22-27be-43e8-912e-4777c8de4d12/</t>
+          <t>http://www.cars.com/vehicledetail/0f3aa13d-16da-4d72-8399-5d203cb9e2aa/</t>
         </is>
       </c>
     </row>
@@ -5262,29 +5266,29 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2017 Jeep Grand Cherokee Limited</t>
+          <t>2019 BMW 530e iPerformance</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>$28,280</t>
+          <t>$34,998</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>42,739 mi.</t>
+          <t>28,629 mi.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Acura of Reno
+CarMax Reno - Now offering Curbside Pickup
 </t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/693c1716-a3d0-47d7-8949-6089021f983f/</t>
+          <t>http://www.cars.com/vehicledetail/96b2d3d3-211f-4f62-8112-eba5fe2063cb/</t>
         </is>
       </c>
     </row>
@@ -5294,29 +5298,29 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2010 Ford Focus SE</t>
+          <t>2019 Land Rover Range Rover Velar P250 S</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>$10,990</t>
+          <t>$41,998</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>84,922 mi.</t>
+          <t>38,346 mi.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Carvana-Touchless Delivery To Your Home-Reno
+CarMax Reno - Now offering Curbside Pickup
 </t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/daf28608-4a4c-4084-83cb-3b4276212b1b/</t>
+          <t>http://www.cars.com/vehicledetail/ce7cf2b7-1c43-43ea-881a-af8750352129/</t>
         </is>
       </c>
     </row>
@@ -5326,29 +5330,29 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2014 MINI Countryman Cooper S</t>
+          <t>2022 Kia Sorento Plug-In Hybrid SX</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>$18,998</t>
+          <t>$49,991</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>64,563 mi.</t>
+          <t>4,275 mi.</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CarMax Reno - Now offering Curbside Pickup
+Tom Dolan's Reno KIA
 </t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/e27b7b92-b1b2-4125-b3ea-88ae22cf779a/</t>
+          <t>http://www.cars.com/vehicledetail/a1a2af5f-0194-49ae-beef-ec6d21ee5267/</t>
         </is>
       </c>
     </row>
@@ -5358,29 +5362,29 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2019 Lexus ES 350 F Sport</t>
+          <t>2019 Lexus GX 460 Luxury</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>$40,998</t>
+          <t>$45,497</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>11,714 mi.</t>
+          <t>32,380 mi.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CarMax Reno - Now offering Curbside Pickup
+Dolan Lexus
 </t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/544d7db6-a6ef-4496-a915-1dee7ea1a4ac/</t>
+          <t>http://www.cars.com/vehicledetail/a44e4de5-3e74-4221-af4d-16164a3d43b4/</t>
         </is>
       </c>
     </row>
@@ -5390,29 +5394,29 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2019 GMC Yukon XL SLT</t>
+          <t>2021 GMC Sierra 3500 Denali</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>$49,998</t>
+          <t>$77,988</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>50,683 mi.</t>
+          <t>12,375 mi.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CarMax Reno - Now offering Curbside Pickup
+Corwin Ford Reno
 </t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2f1c9f91-b3eb-4944-94b4-e80830850224/</t>
+          <t>http://www.cars.com/vehicledetail/caf6b044-a830-4109-9b26-5c755130ac80/</t>
         </is>
       </c>
     </row>
@@ -5422,29 +5426,29 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2022 Tesla Model Y Long Range</t>
+          <t>2018 Ford Explorer XLT</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>$65,998</t>
+          <t>$27,989</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>28,904 mi.</t>
+          <t>46,039 mi.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CarMax Reno - Now offering Curbside Pickup
+Corwin Ford Reno
 </t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2a424d93-b661-4aec-bf8e-ab6e11b2aa2e/</t>
+          <t>http://www.cars.com/vehicledetail/55534cc9-4d44-411e-8773-4c1e07200066/</t>
         </is>
       </c>
     </row>
@@ -5454,29 +5458,29 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2018 Jaguar E-PACE S</t>
+          <t>2022 Buick Enclave Premium</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>$31,998</t>
+          <t>$48,749</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>35,460 mi.</t>
+          <t>2,929 mi.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CarMax Reno - Now offering Curbside Pickup
+Corwin Ford Reno
 </t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8f00bcbb-1bb4-4e98-a15d-c2777db7a7ac/</t>
+          <t>http://www.cars.com/vehicledetail/4145c7b1-230d-4a58-bd62-5cd6b4ff097e/</t>
         </is>
       </c>
     </row>
@@ -5486,29 +5490,29 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2022 Tesla Model Y Long Range</t>
+          <t>2022 Toyota Highlander XSE</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>$68,749</t>
+          <t>$47,747</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>11,069 mi.</t>
+          <t>2,082 mi.</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dolan Lexus
+Corwin Ford Reno
 </t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/71b3629f-fcc4-4873-93c3-07072cab14e8/</t>
+          <t>http://www.cars.com/vehicledetail/8808fcaf-dde9-41bb-a5cf-b15b50fbbf51/</t>
         </is>
       </c>
     </row>
@@ -5518,29 +5522,29 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2013 BMW 328 i</t>
+          <t>2019 Volkswagen Passat 2.0T SE R-Line</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>$19,497</t>
+          <t>$24,895</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>54,956 mi.</t>
+          <t>41,848 mi.</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dolan Lexus
+Lithia Hyundai of Reno
 </t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/f92af43e-5028-4efa-8e5a-630c7cab29aa/</t>
+          <t>http://www.cars.com/vehicledetail/8e09c7b3-ab71-4c56-9299-4937d7230089/</t>
         </is>
       </c>
     </row>
@@ -5550,29 +5554,29 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2019 Subaru Ascent Touring 7-Passenger</t>
+          <t>2015 GMC Canyon SLE</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>$34,987</t>
+          <t>$29,995</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>27,985 mi.</t>
+          <t>49,211 mi.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dolan Lexus
+Lithia Hyundai of Reno
 </t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/ad8f61e9-ab5e-43a0-84d4-8660730c4b3b/</t>
+          <t>http://www.cars.com/vehicledetail/92324da8-2af4-4c14-a0fd-16bff69979c3/</t>
         </is>
       </c>
     </row>
@@ -5582,29 +5586,29 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2022 Audi SQ5 3.0T Premium</t>
+          <t>2020 Honda Insight Touring</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>$58,067</t>
+          <t>$30,995</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>10,227 mi.</t>
+          <t>29,253 mi.</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Corwin Ford Reno
+Lithia Reno Subaru
 </t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/d76e7a0b-a641-4a18-9452-565052afc278/</t>
+          <t>http://www.cars.com/vehicledetail/cc5fe7b5-bd90-4d60-a0b6-1b7db40bb050/</t>
         </is>
       </c>
     </row>
@@ -5614,29 +5618,29 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2022 Buick Enclave Premium</t>
+          <t>2014 Mercedes-Benz E-Class E 350</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>$48,966</t>
+          <t>$19,923</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2,929 mi.</t>
+          <t>42,039 mi.</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Corwin Ford Reno
+Lithia Reno Subaru
 </t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/4145c7b1-230d-4a58-bd62-5cd6b4ff097e/</t>
+          <t>http://www.cars.com/vehicledetail/c48811fc-9e39-46e4-941d-26d173e19bbf/</t>
         </is>
       </c>
     </row>
@@ -5646,29 +5650,29 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2016 INFINITI QX70 Base</t>
+          <t>2018 Toyota Sequoia SR5</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>$25,489</t>
+          <t>$43,991</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>59,508 mi.</t>
+          <t>38,995 mi.</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Corwin Ford Reno
+Dolan Toyota 
 </t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/5fee4eb9-a38b-44bc-bb04-cf27600e3ecf/</t>
+          <t>http://www.cars.com/vehicledetail/22e7e2b6-d2de-4f02-866a-c55355678188/</t>
         </is>
       </c>
     </row>
@@ -5678,29 +5682,29 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021 Ford Expedition Max King Ranch</t>
+          <t>2014 Lexus LS 460 L</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>$71,899</t>
+          <t>$24,497</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>15,912 mi.</t>
+          <t>124,391 mi.</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Corwin Ford Reno
+Dolan Toyota 
 </t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/00ec0ddd-2a03-4234-ad2a-80bbe30d2318/</t>
+          <t>http://www.cars.com/vehicledetail/cdfad2e7-4c1c-4a9a-ac0b-82009b09ff7a/</t>
         </is>
       </c>
     </row>
@@ -5710,29 +5714,29 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2012 GMC Sierra 2500 SLT</t>
+          <t>2018 Jeep Wrangler Unlimited Rubicon</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>$32,989</t>
+          <t>$44,980</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>36,049 mi.</t>
+          <t>39,743 mi.</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Corwin Ford Reno
+Lithia Chrysler Jeep of Reno
 </t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/095bd8a5-eae3-4a89-a374-eb8c6aa9abee/</t>
+          <t>http://www.cars.com/vehicledetail/ad9c3eba-b3c7-4195-939c-7ff4338735f8/</t>
         </is>
       </c>
     </row>
@@ -5742,29 +5746,29 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2022 Hyundai Elantra SE</t>
+          <t>2022 GMC Terrain SLT</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>$21,595</t>
+          <t>$32,980</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>27,511 mi.</t>
+          <t>11,984 mi.</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lithia Hyundai of Reno
+Lithia Chrysler Jeep of Reno
 </t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/6b98530c-f2f1-4a70-b4cf-6afc062c050f/</t>
+          <t>http://www.cars.com/vehicledetail/02e51041-f820-4de2-8821-257ac540ae44/</t>
         </is>
       </c>
     </row>
@@ -5774,29 +5778,29 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2019 Subaru Ascent Premium 7-Passenger</t>
+          <t>2011 Ford F-250 Lariat</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>$30,832</t>
+          <t>$28,777</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>23,243 mi.</t>
+          <t>174,400 mi.</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lithia Reno Subaru
+Corwin Reno Buick GMC Cadillac
 </t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/e198d60a-6713-4fdc-86db-320c43b6b469/</t>
+          <t>http://www.cars.com/vehicledetail/0e64fe39-1e68-4506-bd2d-5f6e1def2dd6/</t>
         </is>
       </c>
     </row>
@@ -5806,29 +5810,29 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2018 Porsche Panamera 4</t>
+          <t>2022 Mazda CX-30 2.5 S Preferred Package</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>$62,949</t>
+          <t>$30,782</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>46,350 mi.</t>
+          <t>6,710 mi.</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lithia Reno Subaru
+Compass Mazda
 </t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/266a9d81-559b-41c8-bfcd-49d46e0e8f8c/</t>
+          <t>http://www.cars.com/vehicledetail/08e3bb07-43c0-42a5-9945-decc86bf5752/</t>
         </is>
       </c>
     </row>
@@ -5838,29 +5842,29 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2021 Porsche Panamera 4S</t>
+          <t>2020 Lexus GX 460 Base</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>$132,990</t>
+          <t>$46,664</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1,449 mi.</t>
+          <t>22,302 mi.</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Porsche Minneapolis
+Corwin Reno Buick GMC Cadillac
 </t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/458148c5-ae66-411d-a707-32c69ec55b47/</t>
+          <t>http://www.cars.com/vehicledetail/d0842200-376b-448f-bbc0-9152fdd6c18a/</t>
         </is>
       </c>
     </row>
@@ -5870,29 +5874,29 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2021 Toyota Sequoia TRD Sport</t>
+          <t>2015 Chevrolet Silverado 2500 LTZ</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>$64,991</t>
+          <t>$39,939</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>16,568 mi.</t>
+          <t>168,168 mi.</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dolan Toyota 
+Corwin Reno Buick GMC Cadillac
 </t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/a90e011a-3cfb-4e37-89ed-a262a24810f1/</t>
+          <t>http://www.cars.com/vehicledetail/1cff6b3b-5263-42eb-ad93-5fff9e2ba523/</t>
         </is>
       </c>
     </row>
@@ -5902,29 +5906,29 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2018 Subaru WRX Premium</t>
+          <t>2020 Lexus RX 350 F Sport</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>$26,980</t>
+          <t>$47,577</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>56,951 mi.</t>
+          <t>19,742 mi.</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lithia Chrysler Jeep of Reno
+Corwin Reno Buick GMC Cadillac
 </t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/a61a6f67-ff28-4662-aec5-60e2305dcd26/</t>
+          <t>http://www.cars.com/vehicledetail/7ec8585a-2ea4-44db-b933-3006f1b05ce7/</t>
         </is>
       </c>
     </row>
@@ -5934,29 +5938,29 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2018 Land Rover Range Rover Sport HSE Dynamic</t>
+          <t>2020 Audi RS Q8 4.0T</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>$69,987</t>
+          <t>$114,378</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>38,863 mi.</t>
+          <t>27,266 mi.</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lithia Chrysler Jeep of Reno
+Corwin Reno Buick GMC Cadillac
 </t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/18a6a95a-359e-4cbd-99a8-e15e7e604bc6/</t>
+          <t>http://www.cars.com/vehicledetail/5ae5f5fc-2eea-4309-8366-a9a2239432b6/</t>
         </is>
       </c>
     </row>
@@ -5966,29 +5970,29 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2021 Mazda Mazda6 Grand Touring Reserve</t>
+          <t>2014 RAM 2500 Tradesman</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>$31,480</t>
+          <t>$28,999</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>21,265 mi.</t>
+          <t>61,515 mi.</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lithia Chrysler Jeep of Reno
+Bill Pearce Courtesy Honda
 </t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/294d31a0-b720-4266-9d22-63b0c5fbccc3/</t>
+          <t>http://www.cars.com/vehicledetail/25ee8f54-7b4c-461f-80f6-b5e94bce9a1b/</t>
         </is>
       </c>
     </row>
@@ -5998,29 +6002,29 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2015 GMC Sierra 3500 Denali</t>
+          <t>2018 Nissan Titan SV</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>$39,997</t>
+          <t>$33,999</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>182,076 mi.</t>
+          <t>26,946 mi.</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Corwin Reno Buick GMC Cadillac
+Bill Pearce Courtesy Honda
 </t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/1ae79654-e9b7-49b3-829c-c4d61d95880b/</t>
+          <t>http://www.cars.com/vehicledetail/5df20749-2e46-4196-bbe0-3bca6bae8b69/</t>
         </is>
       </c>
     </row>
@@ -6030,29 +6034,29 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2018 Cadillac ATS-V 4dr Sdn</t>
+          <t>2017 Nissan Titan XD PRO-4X</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>$45,997</t>
+          <t>$42,991</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>27,659 mi.</t>
+          <t>38,248 mi.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Corwin Reno Buick GMC Cadillac
+Dolan Dodge Ram FIAT
 </t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/24a38cd4-b3d5-48bb-afd8-90ca472de8e1/</t>
+          <t>http://www.cars.com/vehicledetail/88ce3a2f-4549-4f54-8f15-a176d1dfdff9/</t>
         </is>
       </c>
     </row>
@@ -6062,29 +6066,29 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2022 GMC Canyon Base</t>
+          <t>2019 GMC Savana 3500 Work Van</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>$43,191</t>
+          <t>$87,500</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1,430 mi.</t>
+          <t>20,106 mi.</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Corwin Reno Buick GMC Cadillac
+New Autos, Inc
 </t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/932dfbc4-cf45-4909-bebc-7ac9f4a064ac/</t>
+          <t>http://www.cars.com/vehicledetail/02ec1bea-ea56-44f6-8ece-a38c5a95e35f/</t>
         </is>
       </c>
     </row>
@@ -6094,29 +6098,29 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2014 RAM 2500 Tradesman</t>
+          <t>2018 RAM 2500 Laramie</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>$29,917</t>
+          <t>$58,987</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>61,515 mi.</t>
+          <t>74,356 mi.</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bill Pearce Courtesy Honda
+Dolan Fernley Chrysler Jeep Dodge Ram
 </t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/25ee8f54-7b4c-461f-80f6-b5e94bce9a1b/</t>
+          <t>http://www.cars.com/vehicledetail/0d0785dd-c83f-4d6a-aea4-b2ff168ee4bb/</t>
         </is>
       </c>
     </row>
@@ -6126,29 +6130,29 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2015 RAM 2500 Laramie</t>
+          <t>2020 Ford Expedition Limited</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>$41,497</t>
+          <t>$39,987</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>70,754 mi.</t>
+          <t>63,594 mi.</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dolan Dodge Ram FIAT
+Dolan Fernley Chrysler Jeep Dodge Ram
 </t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/2af939e3-ef90-494b-b265-7c2a033976c9/</t>
+          <t>http://www.cars.com/vehicledetail/53ac41d4-05fc-4468-93df-c02584111e30/</t>
         </is>
       </c>
     </row>
@@ -6158,29 +6162,29 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2018 BMW 440 Gran Coupe i</t>
+          <t>2022 Jeep Grand Wagoneer Series III</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>$33,980</t>
+          <t>$99,998</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>66,843 mi.</t>
+          <t>7,898 mi.</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW Of San Luis Obispo
+Dolan Fernley Chrysler Jeep Dodge Ram
 </t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/7cc971b0-c1fb-4263-af85-04498d05df40/</t>
+          <t>http://www.cars.com/vehicledetail/db58ff05-eef3-415e-aae3-a21cdab2c544/</t>
         </is>
       </c>
     </row>
@@ -6190,29 +6194,29 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2019 BMW ALPINA B7 xDrive</t>
+          <t>2021 Cadillac CT5 Premium Luxury AWD</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>$75,000</t>
+          <t>$47,997</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>58,221 mi.</t>
+          <t>14,000 mi.</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW Of San Luis Obispo
+Dolan Fernley Chrysler Jeep Dodge Ram
 </t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/577dc574-b53d-4a28-be9b-414801b9ee31/</t>
+          <t>http://www.cars.com/vehicledetail/40e8081e-3193-4913-9a97-4000f6f09567/</t>
         </is>
       </c>
     </row>
@@ -6222,29 +6226,29 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2017 Mercedes-Benz Metris Base</t>
+          <t>2017 BMW M760 i xDrive</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>$31,900</t>
+          <t>$58,799</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>52,300 mi.</t>
+          <t>49,939 mi.</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sunset Honda
+BMW Of San Luis Obispo
 </t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/6be69354-0e01-4282-a6ac-8be430549624/</t>
+          <t>http://www.cars.com/vehicledetail/21c77b17-9542-4ec7-a365-e456ae37fe4d/</t>
         </is>
       </c>
     </row>
@@ -6254,29 +6258,29 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2020 Subaru WRX Premium</t>
+          <t>2017 BMW X6 M Base</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>$31,490</t>
+          <t>$46,994</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>20,313 mi.</t>
+          <t>58,238 mi.</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Toyota of San Luis Obispo
+BMW Of San Luis Obispo
 </t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/06ef6f33-8d8c-4606-a40b-29bee5cfefde/</t>
+          <t>http://www.cars.com/vehicledetail/045c2655-5dce-4623-9ebe-369bfbc528f4/</t>
         </is>
       </c>
     </row>
@@ -6286,29 +6290,29 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2013 Toyota 4Runner SR5</t>
+          <t>2022 BMW 740 i</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>$23,997</t>
+          <t>$68,328</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>105,626 mi.</t>
+          <t>14,727 mi.</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Toyota of San Luis Obispo
+BMW Of San Luis Obispo
 </t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/035fdaae-a304-48bb-a438-200c9c7fda4b/</t>
+          <t>http://www.cars.com/vehicledetail/240f8cb6-5d03-4026-93cb-5809944a3e23/</t>
         </is>
       </c>
     </row>
@@ -6318,29 +6322,29 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2021 Ford Shelby GT500 Base</t>
+          <t>2022 BMW ALPINA B8 Gran Coupe xDrive</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>$99,995</t>
+          <t>$128,888</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>172 mi.</t>
+          <t>2,549 mi.</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Corning Ford
+BMW Of San Luis Obispo
 </t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/3575559d-1048-4cf8-92af-88ac6089c7c4/</t>
+          <t>http://www.cars.com/vehicledetail/5283c1ad-d7c7-45fc-842b-88d312d7e45a/</t>
         </is>
       </c>
     </row>
@@ -6350,23 +6354,29 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2023 Audi RS 3 2.5T</t>
+          <t>2021 Mazda CX-5 Grand Touring</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>$70,500</t>
+          <t>$31,897</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1,367 mi.</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
+          <t>16,851 mi.</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sunset Honda
+</t>
+        </is>
+      </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/77906100-b14b-42da-9389-1b79207e2978/</t>
+          <t>http://www.cars.com/vehicledetail/72ed3580-dfc5-4f1d-88ab-eaaf8167f4cd/</t>
         </is>
       </c>
     </row>
@@ -6376,29 +6386,29 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2004 GMC Yukon SLE</t>
+          <t>2021 BMW X4 M AWD</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>$10,995</t>
+          <t>$71,792</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>123,836 mi.</t>
+          <t>23,242 mi.</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Advanced Auto Wholesale II
+Mercedes-Benz &amp; Chevrolet in San Luis Obispo
 </t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/40148cbb-fd30-4dfe-b2af-6ce8d0fd2275/</t>
+          <t>http://www.cars.com/vehicledetail/478950ba-f8c7-4a3b-83b6-d45e9c9d3e80/</t>
         </is>
       </c>
     </row>
@@ -6408,29 +6418,29 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2014 Mercedes-Benz M-Class ML 350 BlueTEC 4MATIC</t>
+          <t>2017 Nissan Maxima 3.5 SV</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>$19,995</t>
+          <t>$22,874</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>96,703 mi.</t>
+          <t>59,968 mi.</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Advanced Auto Wholesale II
+Home Motors
 </t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/e0c00ee3-da24-41b9-95a7-936de99b61d5/</t>
+          <t>http://www.cars.com/vehicledetail/964401d0-9a1c-46d3-947a-92eb5e7f0003/</t>
         </is>
       </c>
     </row>
@@ -6440,29 +6450,29 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2008 GMC Yukon SLE</t>
+          <t>2019 Mercedes-Benz Sprinter 3500 High Roof V6</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>$18,999</t>
+          <t>$39,999</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>61,545 mi.</t>
+          <t>15,481 mi.</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Timo's Auto Sales LLC
+Haddad Dodge Ram
 </t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/15384533-990c-4aee-bdf3-8169971b86cf/</t>
+          <t>http://www.cars.com/vehicledetail/e175daa5-15bf-499f-9a79-9518adfc2be1/</t>
         </is>
       </c>
     </row>
@@ -6472,29 +6482,29 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2011 Chevrolet Tahoe LT</t>
+          <t>2014 Mercedes-Benz E-Class E 350 4MATIC</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>$19,995</t>
+          <t>$20,999</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>70,277 mi.</t>
+          <t>74,181 mi.</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bakersfield Hyundai
+Merchant Nissan
 </t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8bc4c755-0cbc-4b44-91b5-9b17e9b5172c/</t>
+          <t>http://www.cars.com/vehicledetail/0dea5bb6-1a0e-4b67-8f24-aacd21404be8/</t>
         </is>
       </c>
     </row>
@@ -6504,29 +6514,29 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2021 Honda Pilot Special Edition</t>
+          <t>2020 BMW M550 i xDrive</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>$41,349</t>
+          <t>$63,990</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>18,762 mi.</t>
+          <t>32,914 mi.</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Inver Grove Honda
+BMW of Bakersfield
 </t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/df5bdbd7-9f26-4c0c-85d8-772220331b37/</t>
+          <t>http://www.cars.com/vehicledetail/29059953-5927-42a9-932e-c7fdc9f37516/</t>
         </is>
       </c>
     </row>
@@ -6536,29 +6546,29 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2022 Hyundai Palisade Limited</t>
+          <t>2020 BMW 530e iPerformance</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>$46,995</t>
+          <t>$51,990</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>13,618 mi.</t>
+          <t>17,281 mi.</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bakersfield Hyundai
+BMW of Bakersfield
 </t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/a73cc1b3-88d3-4c7f-a5cb-d1ce4e449e9f/</t>
+          <t>http://www.cars.com/vehicledetail/dcde3fc8-a94b-405d-81fb-e6c0944d6c87/</t>
         </is>
       </c>
     </row>
@@ -6568,17 +6578,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2020 BMW X7 xDrive40i</t>
+          <t>2019 BMW 440 i</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>$65,990</t>
+          <t>$41,990</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>51,328 mi.</t>
+          <t>53,272 mi.</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6590,7 +6600,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/6d222e92-20f6-4a65-920d-f01daf1fe327/</t>
+          <t>http://www.cars.com/vehicledetail/f48a05d3-a769-4cc0-bff8-37dce870f092/</t>
         </is>
       </c>
     </row>
@@ -6600,29 +6610,29 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2020 BMW 745e xDrive iPerformance</t>
+          <t>2016 Subaru Crosstrek 2.0i Premium</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>$71,990</t>
+          <t>$23,990</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>33,973 mi.</t>
+          <t>44,788 mi.</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Bakersfield
+Carvana-Touchless Delivery To Your Home
 </t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/96eaf279-568b-463e-bbf4-59dae4c3ebb4/</t>
+          <t>http://www.cars.com/vehicledetail/d678e0a8-8ca0-416d-ac15-18fd7e9d95d1/</t>
         </is>
       </c>
     </row>
@@ -6632,29 +6642,29 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2020 BMW M550 i xDrive</t>
+          <t>2020 Cadillac XT5 Premium Luxury</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>$63,990</t>
+          <t>$36,998</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>32,914 mi.</t>
+          <t>25,719 mi.</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Bakersfield
+CarMax Bakersfield - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/29059953-5927-42a9-932e-c7fdc9f37516/</t>
+          <t>http://www.cars.com/vehicledetail/011b0aec-7210-41c4-8d18-c0ffd951a585/</t>
         </is>
       </c>
     </row>
@@ -6664,29 +6674,29 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2020 Acura RDX A-Spec</t>
+          <t>2018 Mercedes-Benz SLC 300 Base</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>$41,990</t>
+          <t>$37,998</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>24,938 mi.</t>
+          <t>21,192 mi.</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Bakersfield
+CarMax Bakersfield - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/72910130-f451-4e58-8165-45b9ee81377a/</t>
+          <t>http://www.cars.com/vehicledetail/907b3a53-8bf9-42fd-bc50-d487d864cba2/</t>
         </is>
       </c>
     </row>
@@ -6696,29 +6706,29 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve">2015 Lexus IS 250 </t>
+          <t>2020 Nissan Rogue SV</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>$25,991</t>
+          <t>$22,998</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>60,933 mi.</t>
+          <t>59,174 mi.</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mercedes-Benz of Bakersfield
+CarMax Bakersfield - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0d3d6f9c-ced6-40bd-b362-e980591e3183/</t>
+          <t>http://www.cars.com/vehicledetail/108ea77c-6192-4c3b-a4a0-71ac005abcac/</t>
         </is>
       </c>
     </row>
@@ -6728,29 +6738,29 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2021 Audi S5 3.0T Prestige</t>
+          <t>2020 Lexus ES 300h Base</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>$68,849</t>
+          <t>$38,998</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>4,344 mi.</t>
+          <t>36,920 mi.</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Audi Porsche Volkswagen Bakersfield
+CarMax Bakersfield - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/f3c45f9e-eb24-4736-96ec-da4b026a8768/</t>
+          <t>http://www.cars.com/vehicledetail/3804e6b8-5755-4ca6-b277-3e4547004a68/</t>
         </is>
       </c>
     </row>
@@ -6760,17 +6770,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2017 Subaru Legacy 2.5i</t>
+          <t>2015 Jeep Grand Cherokee Limited</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>$19,998</t>
+          <t>$17,998</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>64,009 mi.</t>
+          <t>120,292 mi.</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -6782,7 +6792,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/69587a40-3479-429b-9000-9ba07eb29933/</t>
+          <t>http://www.cars.com/vehicledetail/6db7e04b-cbcf-4093-9cad-d23e574c80b3/</t>
         </is>
       </c>
     </row>
@@ -6792,29 +6802,29 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2008 Ford F-350 XLT</t>
+          <t>2018 Kia Soul +</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>$20,995</t>
+          <t>$15,998</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>72,606 mi.</t>
+          <t>89,107 mi.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lithia Toyota of Redding
+CarMax Bakersfield - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/7796c3e9-07e5-4242-b669-4d51f9a6ce84/</t>
+          <t>http://www.cars.com/vehicledetail/b87e79df-dcfa-4572-a241-02767623677d/</t>
         </is>
       </c>
     </row>
@@ -6824,29 +6834,29 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2014 Ford Edge SEL</t>
+          <t>2020 Lexus RX 350 F Sport Performance</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>$14,973</t>
+          <t>$51,998</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>44,587 mi.</t>
+          <t>16,250 mi.</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Santa Barbara Honda
+CarMax Bakersfield - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/4ed26952-0b6d-46b6-8dc7-4d9113b2c6c1/</t>
+          <t>http://www.cars.com/vehicledetail/cba2d36c-b12e-4df4-bac0-77225105b811/</t>
         </is>
       </c>
     </row>
@@ -6856,29 +6866,29 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2013 BMW M5 Base</t>
+          <t>2013 Toyota FJ Cruiser Base</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>$38,500</t>
+          <t>$28,995</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>68,504 mi.</t>
+          <t>105,440 mi.</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Milpas Motors
+Lithia Toyota of Redding
 </t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/ad95e843-c6a4-481a-bccc-87941dd88f3a/</t>
+          <t>http://www.cars.com/vehicledetail/85fd0ec1-e37d-4c7f-aeec-5aa91ee82d19/</t>
         </is>
       </c>
     </row>
@@ -6888,29 +6898,29 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2020 Jaguar XE R-Dynamic S</t>
+          <t>2016 Chevrolet Silverado 1500 WT</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>$41,998</t>
+          <t>$24,995</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>15,139 mi.</t>
+          <t>66,263 mi.</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CarMax Oxnard - Now offering Curbside Pickup and Home Delivery
+Lithia Toyota of Redding
 </t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/6c78e5db-3e89-4561-bed0-845cb95dcfef/</t>
+          <t>http://www.cars.com/vehicledetail/c3cd5be5-16e8-4368-9be8-478990570971/</t>
         </is>
       </c>
     </row>
@@ -6920,29 +6930,29 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2003 Chevrolet Suburban LS</t>
+          <t>2022 Honda Accord Sport 1.5T</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>$3,990</t>
+          <t>$30,995</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>221,918 mi.</t>
+          <t>906 mi.</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Starfire Auto Inc.
+Toyota of Santa Barbara
 </t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/f514a8d9-6f7c-4f77-bfac-b2bc7b9e073a/</t>
+          <t>http://www.cars.com/vehicledetail/f0ef6e87-315c-449f-b71a-49b14c5fccb2/</t>
         </is>
       </c>
     </row>
@@ -6952,29 +6962,29 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2022 BMW M440 Gran Coupe i xDrive</t>
+          <t xml:space="preserve">1970 Buick Electra 225 </t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>$59,747</t>
+          <t>$19,491</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>7,846 mi.</t>
+          <t>53,098 mi.</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Steve Thomas BMW
+STA Auto Group
 </t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/fb526038-2153-49a1-92b3-c47b4d5aab5e/</t>
+          <t>http://www.cars.com/vehicledetail/9f881600-94ce-41cb-b9ba-14b1a66cfd89/</t>
         </is>
       </c>
     </row>
@@ -6984,29 +6994,29 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2021 Audi RS 5 2.9T</t>
+          <t>2002 Volkswagen Eurovan MV</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>$75,485</t>
+          <t>$21,980</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>15,351 mi.</t>
+          <t>155,015 mi.</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Valencia BMW
+Starfire Auto Inc.
 </t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/47dcbcdb-ec40-48b2-b9ab-2eaff128ed84/</t>
+          <t>http://www.cars.com/vehicledetail/dd9777a0-74c2-4864-aae4-ef2ddd260bf4/</t>
         </is>
       </c>
     </row>
@@ -7016,29 +7026,29 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2018 BMW 650 Gran Coupe i</t>
+          <t>2008 Volkswagen New Beetle S</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>$47,398</t>
+          <t>$4,290</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>33,081 mi.</t>
+          <t>129,197 mi.</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Valencia BMW
+Starfire Auto Inc.
 </t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/d7fcd72d-3482-4eec-a13c-291ed88ffdc2/</t>
+          <t>http://www.cars.com/vehicledetail/be31e900-ec83-4a02-ac28-52e384241c3d/</t>
         </is>
       </c>
     </row>
@@ -7048,29 +7058,29 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2019 Buick Enclave Avenir</t>
+          <t>2018 Lexus RX 450h F-SPORT</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>$33,988</t>
+          <t>$44,998</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>44,913 mi.</t>
+          <t>40,335 mi.</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
           <t xml:space="preserve">
-AutoNation Ford Valencia
+CarMax Canoga Park - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8d86f51a-4af4-4aad-bcb4-d83c727b1949/</t>
+          <t>http://www.cars.com/vehicledetail/ed31e933-bf0f-4f5d-8f8f-99235b52093b/</t>
         </is>
       </c>
     </row>
@@ -7080,17 +7090,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2021 RAM 1500 Laramie</t>
+          <t>2021 Audi RS 5 2.9T</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>$52,998</t>
+          <t>$71,998</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>29,077 mi.</t>
+          <t>14,713 mi.</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7102,7 +7112,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/b600b8f4-f4af-41c1-ba9d-eabfa3dfa8c5/</t>
+          <t>http://www.cars.com/vehicledetail/301b5a0e-25fe-48ac-b096-13c9fdceccf3/</t>
         </is>
       </c>
     </row>
@@ -7112,17 +7122,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2020 Chevrolet Bolt EV LT</t>
+          <t>2019 Lexus RX 450h F-SPORT</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>$28,998</t>
+          <t>$48,998</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>33,939 mi.</t>
+          <t>17,924 mi.</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7134,7 +7144,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/5632c394-518f-4c91-9fab-263c9139831d/</t>
+          <t>http://www.cars.com/vehicledetail/5278c227-b1ee-4773-9966-7bc68da6980f/</t>
         </is>
       </c>
     </row>
@@ -7144,29 +7154,29 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2017 Ford F-250 Platinum</t>
+          <t>2020 Mercedes-Benz C-Class C 300 4MATIC</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>$74,000</t>
+          <t>$38,820</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>30,310 mi.</t>
+          <t>30,068 mi.</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Harper Motors
+Mercedes-Benz of Lynnwood
 </t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/1381eaaa-775c-4eb0-8deb-25743fd22cf7/</t>
+          <t>http://www.cars.com/vehicledetail/03d32040-bc11-4354-b5a9-bfd29ec65a8f/</t>
         </is>
       </c>
     </row>
@@ -7176,29 +7186,29 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2016 Hyundai Elantra SE</t>
+          <t xml:space="preserve">2015 Toyota Tundra </t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>$14,457</t>
+          <t>$33,000</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>72,245 mi.</t>
+          <t>80,157 mi.</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mauer Main Chevrolet
+Harper Motors
 </t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/01ba13f9-9251-418c-83ac-2ee7e5c01cf8/</t>
+          <t>http://www.cars.com/vehicledetail/10c05474-25a2-462e-a06b-71bb7bf08e59/</t>
         </is>
       </c>
     </row>
@@ -7208,17 +7218,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2020 Ford Fusion S</t>
+          <t>2020 Mazda CX-9 Signature</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>$23,000</t>
+          <t>$42,000</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>15,602 mi.</t>
+          <t>34,249 mi.</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7230,7 +7240,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/bcfdaa1d-c5fd-4472-a096-552b3d1da593/</t>
+          <t>http://www.cars.com/vehicledetail/d7493c69-f8b0-4f05-9c2a-3afd672fbb04/</t>
         </is>
       </c>
     </row>
@@ -7240,17 +7250,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve">1983 Mercedes-Benz 240D </t>
+          <t>2013 Volkswagen Jetta Hybrid SEL Premium</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>$4,750</t>
+          <t>$10,590</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>222,504 mi.</t>
+          <t>63,739 mi.</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7262,7 +7272,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8898f33d-8d90-4e97-891a-454e6680ef05/</t>
+          <t>http://www.cars.com/vehicledetail/2b4a6cdd-7992-4fc5-804c-6aeacec88dae/</t>
         </is>
       </c>
     </row>
@@ -7272,29 +7282,29 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2017 Ford Mustang EcoBoost Premium</t>
+          <t>2020 Volkswagen Tiguan 2.0T SE</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>$21,995</t>
+          <t>$26,000</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>72,942 mi.</t>
+          <t>58,044 mi.</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roy's Auto Center
+Eureka Chrysler Dodge Jeep Ram
 </t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/8bf0db79-789a-4858-8a8f-bce2f10f8bce/</t>
+          <t>http://www.cars.com/vehicledetail/5272beda-177c-41fe-920a-e8bb526a1eea/</t>
         </is>
       </c>
     </row>
@@ -7304,29 +7314,29 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve">2022 Rolls-Royce Phantom </t>
+          <t>2019 GMC Acadia SLT-1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>$619,995</t>
+          <t>$33,000</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>747 mi.</t>
+          <t>24,172 mi.</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Wires Only
+Eureka Chrysler Dodge Jeep Ram
 </t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/568316ba-378b-4020-ba81-aedd3b74884c/</t>
+          <t>http://www.cars.com/vehicledetail/fe5af182-8b00-49d9-9a0d-552401837b26/</t>
         </is>
       </c>
     </row>
@@ -7336,29 +7346,29 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2021 Alfa Romeo Giulia Base</t>
+          <t>2022 Kia K5 GT-Line</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>$24,495</t>
+          <t>$32,000</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>33,812 mi.</t>
+          <t>13,392 mi.</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Russell Westbrook Alfa Romeo Maserati Fiat
+Galpin Ford
 </t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/e8a63a9d-999e-46e3-a36e-8a9741b2081c/</t>
+          <t>http://www.cars.com/vehicledetail/f30458f7-fd9e-40d6-90a1-144aba807109/</t>
         </is>
       </c>
     </row>
@@ -7368,29 +7378,29 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2007 Bentley Continental GT GT</t>
+          <t>2020 Lincoln Navigator L Reserve</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>$43,885</t>
+          <t>$82,000</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>57,131 mi.</t>
+          <t>23,524 mi.</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Car Search USA
+Galpin Lincoln Volvo
 </t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/eb248287-7fa4-4866-884b-ce8340bf99e6/</t>
+          <t>http://www.cars.com/vehicledetail/44d13bee-8a6e-4965-9769-707d778359cf/</t>
         </is>
       </c>
     </row>
@@ -7400,29 +7410,29 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2017 Audi S3 2.0T Premium Plus</t>
+          <t>2020 Lincoln Continental Black Label</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>$32,990</t>
+          <t>$66,800</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>37,228 mi.</t>
+          <t>9,239 mi.</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
           <t xml:space="preserve">
-MDK International
+Galpin Lincoln Volvo
 </t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/6d3c89a4-6d8a-401f-a10f-93471ca2f186/</t>
+          <t>http://www.cars.com/vehicledetail/43cb361a-8fb6-41b9-a253-cc40ab80f23d/</t>
         </is>
       </c>
     </row>
@@ -7432,29 +7442,29 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>1990 BMW 535 i</t>
+          <t>2018 RAM 3500 Tradesman</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>$28,995</t>
+          <t>$56,995</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>62,627 mi.</t>
+          <t>38,239 mi.</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
           <t xml:space="preserve">
-AutoSpeed Inc
+Roy's Auto Center
 </t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/a4934cd4-2e7e-4f77-893a-bc646d8d24ec/</t>
+          <t>http://www.cars.com/vehicledetail/b9ed9a5a-d413-4284-a7dd-8090d28275aa/</t>
         </is>
       </c>
     </row>
@@ -7464,29 +7474,29 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2011 Mercedes-Benz GLK-Class GLK 350</t>
+          <t>2018 Audi S3 2.0T Premium Plus</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>$15,988</t>
+          <t>$38,992</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>81,860 mi.</t>
+          <t>25,909 mi.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Boktor Motors
+Audi Van Nuys
 </t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/fa6be3f9-0359-49aa-9eaf-c4cc4f5c377e/</t>
+          <t>http://www.cars.com/vehicledetail/1bcba269-f751-40a7-825a-3dfaab39b355/</t>
         </is>
       </c>
     </row>
@@ -7496,29 +7506,29 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2020 INFINITI QX80 Luxe</t>
+          <t>1995 Nissan 300ZX Turbo</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>$34,998</t>
+          <t>$24,990</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>65,524 mi.</t>
+          <t>88,587 mi.</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
           <t xml:space="preserve">
-W.I. Simonson Inc.
+MDK International
 </t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/5c3611b0-d740-459e-a2a1-dbbf36155ea8/</t>
+          <t>http://www.cars.com/vehicledetail/04aff8f2-bbf5-495e-839a-93ef91fdca6a/</t>
         </is>
       </c>
     </row>
@@ -7528,29 +7538,29 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve">1997 Ferrari 550 Maranello </t>
+          <t>2020 Lexus GS F Base</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>$219,000</t>
+          <t>$69,998</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>29,032 mi.</t>
+          <t>13,226 mi.</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ferrari Beverly Hills
+Toyota Santa Monica
 </t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/24cbb8e6-01eb-4233-bf3d-1c0305d391c0/</t>
+          <t>http://www.cars.com/vehicledetail/09ea91a8-240a-4278-a58b-3c280048db7f/</t>
         </is>
       </c>
     </row>
@@ -7560,29 +7570,29 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2020 Lexus LX 570 Three-Row</t>
+          <t xml:space="preserve">2014 Bentley Mulsanne </t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>$79,988</t>
+          <t>$144,900</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>33,980 mi.</t>
+          <t>23,843 mi.</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lexus of Glendale
+Marshall Goldman Motor Sales
 </t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/fe822dfd-29fd-4938-95c5-3c07c84a1452/</t>
+          <t>http://www.cars.com/vehicledetail/881e3946-3b90-4150-bb5b-593acfea65c1/</t>
         </is>
       </c>
     </row>
@@ -7592,29 +7602,29 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>1988 Land Rover Defender 90</t>
+          <t xml:space="preserve">2017 Rolls-Royce Dawn </t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>$28,995</t>
+          <t>$289,900</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>43,499 mi.</t>
+          <t>6,545 mi.</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Santa Monica Suvs
+Marshall Goldman Motor Sales
 </t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/98005b41-d1b4-4b8e-ae1a-e4563bdc921a/</t>
+          <t>http://www.cars.com/vehicledetail/26b8ec04-2f45-420a-983b-4ba216f24f81/</t>
         </is>
       </c>
     </row>
@@ -7624,29 +7634,29 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2022 Land Rover Range Rover Evoque S</t>
+          <t>2017 Audi TT 2.0T</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>$46,988</t>
+          <t>$40,995</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>6,409 mi.</t>
+          <t>14,947 mi.</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Land Rover Pasadena
+Culver City Chevrolet
 </t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/a45437a7-3f3f-47a1-9546-3aa0c31002a3/</t>
+          <t>http://www.cars.com/vehicledetail/52e39d54-15b3-4ecd-a718-3a28a74a6e76/</t>
         </is>
       </c>
     </row>
@@ -7656,29 +7666,29 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2004 Ferrari 360 Modena Spider</t>
+          <t>2000 Jaguar XK8 Base</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>$89,995</t>
+          <t>$13,750</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>31,710 mi.</t>
+          <t>46,959 mi.</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Culver City Chevrolet
+Beverly Hills Car Club
 </t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/3ad8ae0d-e717-49eb-a98c-3482d8ccb086/</t>
+          <t>http://www.cars.com/vehicledetail/01db6111-98f9-4511-b768-fb57e9081e12/</t>
         </is>
       </c>
     </row>
@@ -7688,29 +7698,29 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2022 BMW M440 i xDrive</t>
+          <t>1989 Ferrari 348 TB</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>$57,998</t>
+          <t>$59,950</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>8,371 mi.</t>
+          <t>63,011 mi.</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BMW of Monrovia
+Beverly Hills Car Club
 </t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/40d57968-72b4-4abf-9558-ff8ae8187c8b/</t>
+          <t>http://www.cars.com/vehicledetail/54fe94ab-8322-4bd0-82b5-32774f77c748/</t>
         </is>
       </c>
     </row>
@@ -7720,29 +7730,29 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2015 INFINITI QX80 Base</t>
+          <t>2019 Jaguar XJ XJ R-Sport</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>$23,799</t>
+          <t>$44,998</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>80,176 mi.</t>
+          <t>23,220 mi.</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CAR LUX
+CarMax LAX - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/c4316b49-5d5c-40b0-81ac-89aa5412e364/</t>
+          <t>http://www.cars.com/vehicledetail/3b80c095-ba19-402a-b782-8caf9500e471/</t>
         </is>
       </c>
     </row>
@@ -7752,29 +7762,29 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2010 Porsche Cayenne GTS</t>
+          <t>2018 Porsche Panamera E-Hybrid 4</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>$18,999</t>
+          <t>$72,998</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>76,575 mi.</t>
+          <t>19,291 mi.</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CAR LUX
+HGreg Infiniti Monrovia
 </t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0f1db9fc-9913-48d1-9c0c-f971ea40f86f/</t>
+          <t>http://www.cars.com/vehicledetail/e5b30f37-8ef1-4be6-816e-ab3d136774f0/</t>
         </is>
       </c>
     </row>
@@ -7784,29 +7794,29 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2018 Lincoln MKX Reserve</t>
+          <t>2008 Lexus IS-F Base</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>$33,999</t>
+          <t>$27,736</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>45,287 mi.</t>
+          <t>95,364 mi.</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Commerce Mitsubishi
+CAR LUX
 </t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0dcec499-5676-4372-9fcf-23abf417a743/</t>
+          <t>http://www.cars.com/vehicledetail/8c299e97-eac6-477b-bbf1-fc61d0c30c6e/</t>
         </is>
       </c>
     </row>
@@ -7816,29 +7826,29 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2019 Ford Taurus SEL</t>
+          <t>2019 BMW X7 xDrive40i</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>$20,999</t>
+          <t>$65,995</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>42,002 mi.</t>
+          <t>37,658 mi.</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
           <t xml:space="preserve">
-LA Auto Exchange
+BMW of Idaho Falls
 </t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/7907e0ec-d653-45a3-85fb-7bb52396ca41/</t>
+          <t>http://www.cars.com/vehicledetail/6483dd9a-86f1-442b-b763-c0a338a106b8/</t>
         </is>
       </c>
     </row>
@@ -7848,29 +7858,29 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2022 Mitsubishi Outlander Sport ES</t>
+          <t>2015 INFINITI QX80 Base</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>$24,499</t>
+          <t>$23,799</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>15,683 mi.</t>
+          <t>80,176 mi.</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Inver Grove Auto Sales
+CAR LUX
 </t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/464beed1-11fe-435b-a431-46ce00c7c2ce/</t>
+          <t>http://www.cars.com/vehicledetail/c4316b49-5d5c-40b0-81ac-89aa5412e364/</t>
         </is>
       </c>
     </row>
@@ -7880,29 +7890,29 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2022 Rivian R1S Launch Edition</t>
+          <t>2016 Volkswagen Golf TSI SE 4-Door</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>$148,888</t>
+          <t>$13,495</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>926 mi.</t>
+          <t>73,848 mi.</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Platinum Autohaus
+CarWorld
 </t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/7f511c01-846e-467a-8825-7dfa7af80f1b/</t>
+          <t>http://www.cars.com/vehicledetail/7ceb0675-0f45-47be-b261-d73148271efd/</t>
         </is>
       </c>
     </row>
@@ -7912,29 +7922,29 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2019 Maserati Levante Base</t>
+          <t>2022 Rivian R1S Launch Edition</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>$44,592</t>
+          <t>$138,888</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>56,019 mi.</t>
+          <t>926 mi.</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mercedes-Benz of South Bay
+Platinum Autohaus
 </t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/7246a242-828c-44e1-88af-a3026c969e94/</t>
+          <t>http://www.cars.com/vehicledetail/7f511c01-846e-467a-8825-7dfa7af80f1b/</t>
         </is>
       </c>
     </row>
@@ -7944,29 +7954,29 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve">1993 Mazda RX-7 </t>
+          <t>2010 Honda Accord Crosstour EX-L</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>$69,188</t>
+          <t>$13,950</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>62,774 mi.</t>
+          <t>81,372 mi.</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
           <t xml:space="preserve">
-DCH Toyota of Torrance
+Sammys Enterprise
 </t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/653c331b-356e-42b2-bc1b-9262e9a96812/</t>
+          <t>http://www.cars.com/vehicledetail/4f61dfbf-6bac-457a-b732-61cc4cd85e6c/</t>
         </is>
       </c>
     </row>
@@ -7976,29 +7986,29 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2017 Audi S3 2.0T Premium Plus</t>
+          <t>2014 Toyota Land Cruiser V8</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>$28,400</t>
+          <t>$40,900</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>52,364 mi.</t>
+          <t>142,411 mi.</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shift Los Angeles
+Lexus of Cerritos
 </t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/b6d87f79-89a3-4266-b5c6-0e53ab890011/</t>
+          <t>http://www.cars.com/vehicledetail/8667c718-462f-4e64-a349-ea12ed177caa/</t>
         </is>
       </c>
     </row>
@@ -8008,29 +8018,29 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2020 INFINITI QX80 Luxe</t>
+          <t>2022 Kia K5 GT-Line</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>$30,650</t>
+          <t>$32,790</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>80,835 mi.</t>
+          <t>7,530 mi.</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shift Los Angeles
+STG Auto Group of Montclair
 </t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/9e9b1834-638d-46ae-8120-94e83b513e0a/</t>
+          <t>http://www.cars.com/vehicledetail/92c2c317-d658-4ac5-b025-729603f7c6c3/</t>
         </is>
       </c>
     </row>
@@ -8040,29 +8050,29 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2022 BMW 330e 330e</t>
+          <t>2022 Toyota Tundra SR5</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>$43,343</t>
+          <t>$51,670</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>8,756 mi.</t>
+          <t>240 mi.</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
           <t xml:space="preserve">
-STG Auto Group of Bellflower
+STG Auto Group of Montclair
 </t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/63fc013f-c01f-473b-bf2b-adaa7f858b1f/</t>
+          <t>http://www.cars.com/vehicledetail/e413ee4b-724d-44f5-839d-529c9526fc5f/</t>
         </is>
       </c>
     </row>
@@ -8072,29 +8082,29 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2020 Mercedes-Benz CLS 450 Base</t>
+          <t>2014 Lincoln MKZ Base</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>$59,995</t>
+          <t>$20,998</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>26,694 mi.</t>
+          <t>45,780 mi.</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Kia of Carson
+CarMax Buena Park - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/93349a43-a267-4274-803c-7fb08b771ef9/</t>
+          <t>http://www.cars.com/vehicledetail/f8cae0ee-8f43-4af0-895f-7fe3c79cf3fa/</t>
         </is>
       </c>
     </row>
@@ -8104,29 +8114,29 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2006 Dodge Sprinter 158 WB Super High Roof Cargo DRW</t>
+          <t>2022 Nissan Armada S</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>$10,888</t>
+          <t>$47,898</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>270,403 mi.</t>
+          <t>13,955 mi.</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Affordable Auto Solutions
+HGreg Nissan Buena Park
 </t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/ebcfe122-7f5e-4668-a067-7b441b9a015f/</t>
+          <t>http://www.cars.com/vehicledetail/e1dfacac-dbc2-434e-a650-9acdb5bad523/</t>
         </is>
       </c>
     </row>
@@ -8136,29 +8146,29 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2022 Mercedes-Benz C-Class C 300</t>
+          <t>2022 Cadillac CT4-V V-Series Blackwing</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>$46,724</t>
+          <t>$77,995</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>3,555 mi.</t>
+          <t>3,598 mi.</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
           <t xml:space="preserve">
-STG Auto Group of Montclair
+California Car Company
 </t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/61ede6a5-53a0-4edd-96f0-66290afc7a0b/</t>
+          <t>http://www.cars.com/vehicledetail/b300dac5-0f21-463b-9667-0fbb932b518c/</t>
         </is>
       </c>
     </row>
@@ -8168,29 +8178,29 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2016 Maserati Ghibli Base</t>
+          <t>2019 Audi RS 5 2.9T</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>$30,249</t>
+          <t>$69,990</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>19,676 mi.</t>
+          <t>12,493 mi.</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
           <t xml:space="preserve">
-STG Auto Group of Montclair
+House of Imports
 </t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/95258608-c25a-4b6e-89ba-b1c8f50cd86a/</t>
+          <t>http://www.cars.com/vehicledetail/96ffc7c3-e616-4109-9ac0-c59239657033/</t>
         </is>
       </c>
     </row>
@@ -8200,29 +8210,29 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2022 Kia Sorento Hybrid S</t>
+          <t>2017 Lincoln MKZ Reserve</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>$38,055</t>
+          <t>$24,998</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>8,320 mi.</t>
+          <t>57,972 mi.</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
           <t xml:space="preserve">
-STG Auto Group of Montclair
+CarMax Ontario - Now offering Curbside Pickup and Home Delivery
 </t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/0d94977d-fceb-4ab7-a469-5ea711d66ecb/</t>
+          <t>http://www.cars.com/vehicledetail/0a74387d-fdbf-4630-acfe-62b4aa48bcf7/</t>
         </is>
       </c>
     </row>
@@ -8232,29 +8242,29 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2018 Buick Regal TourX Essence</t>
+          <t>2011 Honda Fit Sport</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>$24,900</t>
+          <t>$13,598</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>59,182 mi.</t>
+          <t>77,552 mi.</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fiesta Motors
+Klamath Falls Honda
 </t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/15c5c384-b469-4a45-a0ad-70ea20e67382/</t>
+          <t>http://www.cars.com/vehicledetail/1f44a92f-8ac6-4d64-9b63-435854c78755/</t>
         </is>
       </c>
     </row>
@@ -8264,29 +8274,29 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2019 Buick Regal TourX Essence</t>
+          <t>2018 Subaru Legacy 2.5i Limited</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>$22,998</t>
+          <t>$26,977</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>72,568 mi.</t>
+          <t>42,879 mi.</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HGreg Nissan Buena Park
+Klamath Falls Toyota
 </t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/fd0d2e11-d862-4cd4-b444-85c9736ae7a0/</t>
+          <t>http://www.cars.com/vehicledetail/d42a1fb8-8ae7-4f7f-9d3b-eb8fefb2963e/</t>
         </is>
       </c>
     </row>
@@ -8296,29 +8306,29 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2015 RAM ProMaster 2500 High Roof</t>
+          <t>2007 Toyota Tundra Limited</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>$30,995</t>
+          <t>$13,420</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>95,085 mi.</t>
+          <t>138,684 mi.</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Car Castle
+Klamath Falls Toyota
 </t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/63efc306-1d21-4985-b3f1-a840ad66a2fa/</t>
+          <t>http://www.cars.com/vehicledetail/9b6e4a6d-b0bc-489a-ba16-a5c8021469b8/</t>
         </is>
       </c>
     </row>
@@ -8328,29 +8338,29 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2022 Mercedes-Benz GLA 250 Base</t>
+          <t>2018 MINI Countryman Cooper S ALL4</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>$42,484</t>
+          <t>$28,382</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2,794 mi.</t>
+          <t>37,964 mi.</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mercedes-Benz of Ontario
+Klamath Falls Toyota
 </t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/00d8794a-1aca-43c4-b85f-3dd8611889c7/</t>
+          <t>http://www.cars.com/vehicledetail/55b3bb12-f825-4c77-a223-661999da8d5f/</t>
         </is>
       </c>
     </row>
@@ -8360,29 +8370,29 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2022 Porsche Taycan Cross Turismo 4</t>
+          <t>2021 Hyundai Palisade SEL</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>$119,000</t>
+          <t>$39,652</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>1,621 mi.</t>
+          <t>31,410 mi.</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alfa Romeo Maserati of Ontario
+Klamath Falls Toyota
 </t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/7e456909-490c-4443-a1c9-5a0679a2f5d1/</t>
+          <t>http://www.cars.com/vehicledetail/b01dc0c8-1928-40e0-8a44-0112f650ad5f/</t>
         </is>
       </c>
     </row>
@@ -8392,29 +8402,29 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2020 MINI Countryman John Cooper Works ALL4</t>
+          <t>2018 Volkswagen Tiguan 2.0T SEL</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>$44,995</t>
+          <t>$27,977</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>20,653 mi.</t>
+          <t>38,341 mi.</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lithia Chrysler Jeep Dodge RAM of Klamath Falls
+Klamath Falls Toyota
 </t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/65a5b7d1-b57f-4ed4-bc0b-e2a1fc977ec6/</t>
+          <t>http://www.cars.com/vehicledetail/a14f7944-c1f2-4ea7-b09a-c62e370257d4/</t>
         </is>
       </c>
     </row>
@@ -8424,29 +8434,29 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2018 MINI Countryman John Cooper Works ALL4</t>
+          <t>2018 Mercedes-Benz Metris Base</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>$34,977</t>
+          <t>$30,995</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>34,652 mi.</t>
+          <t>43,277 mi.</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Klamath Falls Toyota
+Pacific Auto Center - Fontana
 </t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/162438c6-0397-4584-abb5-a51fe605ab03/</t>
+          <t>http://www.cars.com/vehicledetail/fbd7f027-4ee9-4c17-8bde-1e946493f59d/</t>
         </is>
       </c>
     </row>
@@ -8456,61 +8466,29 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2018 MINI Countryman Cooper S ALL4</t>
+          <t>2016 Nissan NV Passenger NV3500 HD SL V8</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>$32,977</t>
+          <t>$36,995</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>37,962 mi.</t>
+          <t>66,650 mi.</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Klamath Falls Toyota
+Pacific Auto Center - Fontana
 </t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>http://www.cars.com/vehicledetail/55b3bb12-f825-4c77-a223-661999da8d5f/</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>2016 BMW 650 Gran Coupe i</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>$23,995</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>108,001 mi.</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Pacific Auto Center - Fontana
-</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>http://www.cars.com/vehicledetail/d00810dc-fac2-4bdc-8253-0c696823fb54/</t>
+          <t>http://www.cars.com/vehicledetail/d8b82cf0-5671-42bd-8e46-0a36cd34d5ed/</t>
         </is>
       </c>
     </row>
